--- a/New Results Kr.xlsx
+++ b/New Results Kr.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revised Paper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CB57B8A-3640-425B-9EEE-C7BC9D5387AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3922E73-8222-4B5F-A459-4FEDD9B4D269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="31">
   <si>
     <t>T8-T4</t>
   </si>
@@ -425,7 +425,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -470,6 +470,9 @@
     <xf numFmtId="2" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -605,7 +608,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -641,7 +644,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$4:$F$12</c:f>
+              <c:f>Sheet1!$F$16:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -727,7 +730,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -763,7 +766,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$17:$F$25</c:f>
+              <c:f>Sheet1!$F$29:$F$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -849,7 +852,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -885,7 +888,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$30:$F$38</c:f>
+              <c:f>Sheet1!$F$42:$F$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -969,7 +972,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1005,7 +1008,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$43:$F$51</c:f>
+              <c:f>Sheet1!$F$55:$F$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1089,7 +1092,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1125,7 +1128,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$56:$F$64</c:f>
+              <c:f>Sheet1!$F$68:$F$76</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1211,7 +1214,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1247,7 +1250,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$69:$F$77</c:f>
+              <c:f>Sheet1!$F$81:$F$89</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1335,7 +1338,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1371,7 +1374,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$82:$F$90</c:f>
+              <c:f>Sheet1!$F$94:$F$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1463,7 +1466,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1499,7 +1502,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$95:$F$103</c:f>
+              <c:f>Sheet1!$F$107:$F$115</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1591,7 +1594,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$12</c:f>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1627,7 +1630,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$108:$F$116</c:f>
+              <c:f>Sheet1!$F$120:$F$128</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2581,15 +2584,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>30480</xdr:rowOff>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>350520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
+      <xdr:colOff>297180</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2882,10 +2885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L117"/>
+  <dimension ref="A1:L129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A95" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q106" sqref="Q106"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2905,161 +2908,195 @@
     <col min="25" max="16384" width="11.5546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+    <row r="1" spans="1:12" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J1" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="K1" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4">
+    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="4">
+        <f>D2-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E2" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45.68</v>
+      </c>
+      <c r="G2" s="5">
+        <v>3.97</v>
+      </c>
+      <c r="H2" s="5">
+        <v>6.17</v>
+      </c>
+      <c r="I2" s="6">
+        <v>1550</v>
+      </c>
+      <c r="J2" s="6">
+        <v>1950</v>
+      </c>
+      <c r="K2" s="6">
+        <f>I2+J2</f>
+        <v>3500</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
         <f>D3-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E3" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F3" s="4">
-        <v>45.68</v>
-      </c>
-      <c r="G3" s="5">
-        <v>3.97</v>
-      </c>
-      <c r="H3" s="5">
-        <v>6.17</v>
-      </c>
-      <c r="I3" s="6">
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="8">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9">
+        <v>297</v>
+      </c>
+      <c r="E3" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F3" s="8">
+        <v>47.14</v>
+      </c>
+      <c r="G3" s="10">
+        <v>3.98</v>
+      </c>
+      <c r="H3" s="10">
+        <v>5.56</v>
+      </c>
+      <c r="I3" s="11">
         <v>1550</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="11">
         <v>1950</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="11">
         <f>I3+J3</f>
         <v>3500</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="10">
         <v>0.31</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>D4-273.15</f>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="8">
-        <v>10</v>
-      </c>
-      <c r="D4" s="9">
-        <v>297</v>
-      </c>
-      <c r="E4" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F4" s="8">
-        <v>47.14</v>
-      </c>
-      <c r="G4" s="10">
-        <v>3.98</v>
-      </c>
-      <c r="H4" s="10">
-        <v>5.56</v>
-      </c>
-      <c r="I4" s="11">
+      <c r="A4" s="12">
+        <f t="shared" ref="A4" si="0">D4-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="12">
+        <v>20</v>
+      </c>
+      <c r="D4" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E4" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F4" s="12">
+        <v>48.42</v>
+      </c>
+      <c r="G4" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="H4" s="13">
+        <v>6</v>
+      </c>
+      <c r="I4" s="14">
         <v>1550</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="14">
         <v>1950</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="14">
+        <f>I4+J4</f>
         <v>3500</v>
       </c>
-      <c r="L4" s="10">
+      <c r="L4" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
-        <f t="shared" ref="A5:A8" si="0">D5-273.15</f>
-        <v>14.410000000000025</v>
+        <f t="shared" ref="A4:A7" si="1">D5-273.15</f>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C5" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E5" s="12">
-        <v>7971.48</v>
+        <v>7719.4</v>
       </c>
       <c r="F5" s="12">
-        <v>48.42</v>
-      </c>
-      <c r="G5" s="13">
-        <v>3.1</v>
+        <v>50.33</v>
+      </c>
+      <c r="G5" s="35">
+        <v>3.26</v>
       </c>
       <c r="H5" s="13">
-        <v>6</v>
+        <v>6.13</v>
       </c>
       <c r="I5" s="14">
         <v>1550</v>
       </c>
-      <c r="J5" s="14">
-        <v>1950</v>
-      </c>
-      <c r="K5" s="14">
-        <v>3500</v>
+      <c r="J5" s="36">
+        <v>1600</v>
+      </c>
+      <c r="K5" s="36">
+        <f t="shared" ref="K5:K11" si="2">I5+J5</f>
+        <v>3150</v>
       </c>
       <c r="L5" s="13">
         <v>0.31</v>
@@ -3067,38 +3104,39 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
-        <f t="shared" si="0"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="1"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D6" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E6" s="12">
-        <v>7719.4</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E6" s="13">
+        <v>7492.43</v>
       </c>
       <c r="F6" s="12">
-        <v>50.41</v>
-      </c>
-      <c r="G6" s="13">
-        <v>1.47</v>
+        <v>51.26</v>
+      </c>
+      <c r="G6" s="35">
+        <v>3.21</v>
       </c>
       <c r="H6" s="13">
-        <v>5.82</v>
+        <v>5.85</v>
       </c>
       <c r="I6" s="14">
         <v>1550</v>
       </c>
-      <c r="J6" s="14">
-        <v>1950</v>
-      </c>
-      <c r="K6" s="14">
-        <v>3500</v>
+      <c r="J6" s="36">
+        <v>1500</v>
+      </c>
+      <c r="K6" s="36">
+        <f t="shared" si="2"/>
+        <v>3050</v>
       </c>
       <c r="L6" s="13">
         <v>0.31</v>
@@ -3106,38 +3144,39 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
-        <f t="shared" si="0"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="1"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D7" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E7" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E7" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F7" s="12">
-        <v>51.36</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
+        <v>52.35</v>
+      </c>
+      <c r="G7" s="35">
+        <v>3.36</v>
       </c>
       <c r="H7" s="13">
-        <v>5.47</v>
+        <v>5.67</v>
       </c>
       <c r="I7" s="14">
         <v>1550</v>
       </c>
-      <c r="J7" s="14">
-        <v>1950</v>
-      </c>
-      <c r="K7" s="14">
-        <v>3500</v>
+      <c r="J7" s="36">
+        <v>1350</v>
+      </c>
+      <c r="K7" s="36">
+        <f t="shared" si="2"/>
+        <v>2900</v>
       </c>
       <c r="L7" s="13">
         <v>0.31</v>
@@ -3145,38 +3184,39 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
-        <f t="shared" si="0"/>
-        <v>-13.689999999999998</v>
+        <f>D8-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" s="12">
-        <v>50</v>
-      </c>
-      <c r="D8" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D8" s="13">
+        <v>251.62</v>
       </c>
       <c r="E8" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F8" s="12">
-        <v>52.46</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0.63</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F8" s="13">
+        <v>53.03</v>
+      </c>
+      <c r="G8" s="35">
+        <v>3.21</v>
       </c>
       <c r="H8" s="13">
-        <v>5.19</v>
+        <v>5.64</v>
       </c>
       <c r="I8" s="14">
         <v>1550</v>
       </c>
-      <c r="J8" s="14">
-        <v>1950</v>
-      </c>
-      <c r="K8" s="14">
-        <v>3500</v>
+      <c r="J8" s="36">
+        <v>1250</v>
+      </c>
+      <c r="K8" s="36">
+        <f t="shared" si="2"/>
+        <v>2800</v>
       </c>
       <c r="L8" s="13">
         <v>0.31</v>
@@ -3185,37 +3225,38 @@
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <f>D9-273.15</f>
-        <v>-21.529999999999973</v>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" s="12">
-        <v>60</v>
-      </c>
-      <c r="D9" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D9" s="12">
+        <v>244.1</v>
       </c>
       <c r="E9" s="12">
-        <v>7024.97</v>
-      </c>
-      <c r="F9" s="13">
-        <v>53.16</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0.51</v>
+        <v>6908.85</v>
+      </c>
+      <c r="F9" s="12">
+        <v>53.11</v>
+      </c>
+      <c r="G9" s="35">
+        <v>3.41</v>
       </c>
       <c r="H9" s="13">
-        <v>5.03</v>
+        <v>7.1</v>
       </c>
       <c r="I9" s="14">
         <v>1550</v>
       </c>
-      <c r="J9" s="14">
-        <v>1950</v>
-      </c>
-      <c r="K9" s="14">
-        <v>3500</v>
+      <c r="J9" s="36">
+        <v>1150</v>
+      </c>
+      <c r="K9" s="36">
+        <f t="shared" si="2"/>
+        <v>2700</v>
       </c>
       <c r="L9" s="13">
         <v>0.31</v>
@@ -3224,314 +3265,314 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <f>D10-273.15</f>
-        <v>-29.049999999999983</v>
+        <v>-36.95999999999998</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C10" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D10" s="12">
-        <v>244.1</v>
+        <v>236.19</v>
       </c>
       <c r="E10" s="12">
-        <v>6908.85</v>
+        <v>6845.67</v>
       </c>
       <c r="F10" s="12">
-        <v>53.35</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0.46</v>
+        <v>52.5</v>
+      </c>
+      <c r="G10" s="35">
+        <v>3.45</v>
       </c>
       <c r="H10" s="13">
-        <v>6</v>
+        <v>11.16</v>
       </c>
       <c r="I10" s="14">
         <v>1550</v>
       </c>
-      <c r="J10" s="14">
-        <v>1950</v>
-      </c>
-      <c r="K10" s="14">
-        <v>3500</v>
+      <c r="J10" s="36">
+        <v>1050</v>
+      </c>
+      <c r="K10" s="36">
+        <f t="shared" si="2"/>
+        <v>2600</v>
       </c>
       <c r="L10" s="13">
         <v>0.31</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A11" s="12">
+    <row r="11" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="15">
         <f>D11-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="12">
-        <v>80</v>
-      </c>
-      <c r="D11" s="12">
-        <v>236.19</v>
-      </c>
-      <c r="E11" s="12">
-        <v>6845.67</v>
-      </c>
-      <c r="F11" s="12">
-        <v>52.88</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0.44</v>
-      </c>
-      <c r="H11" s="13">
-        <v>9.31</v>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="16">
+        <v>91</v>
+      </c>
+      <c r="D11" s="16">
+        <v>224.76</v>
+      </c>
+      <c r="E11" s="16">
+        <v>6540.09</v>
+      </c>
+      <c r="F11" s="16">
+        <v>54.24</v>
+      </c>
+      <c r="G11" s="37">
+        <v>3.09</v>
+      </c>
+      <c r="H11" s="15">
+        <v>9.07</v>
       </c>
       <c r="I11" s="14">
         <v>1550</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="36">
+        <v>850</v>
+      </c>
+      <c r="K11" s="36">
+        <f t="shared" si="2"/>
+        <v>2400</v>
+      </c>
+      <c r="L11" s="18">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19">
+        <f>D12-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E12" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F12" s="19">
+        <v>54.33</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="H12" s="20">
+        <v>12.33</v>
+      </c>
+      <c r="I12" s="21">
+        <v>1550</v>
+      </c>
+      <c r="J12" s="21">
         <v>1950</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K12" s="21">
         <v>3500</v>
       </c>
-      <c r="L11" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
-        <f>D12-273.15</f>
-        <v>-48.389999999999986</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="16">
-        <v>91</v>
-      </c>
-      <c r="D12" s="16">
-        <v>224.76</v>
-      </c>
-      <c r="E12" s="16">
-        <v>6540.09</v>
-      </c>
-      <c r="F12" s="16">
-        <v>52.47</v>
-      </c>
-      <c r="G12" s="15">
-        <v>0.24</v>
-      </c>
-      <c r="H12" s="15">
-        <v>14.23</v>
-      </c>
-      <c r="I12" s="17">
+      <c r="L12" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="50.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4">
+        <f>D15-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E15" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F15" s="4">
+        <v>45.68</v>
+      </c>
+      <c r="G15" s="5">
+        <v>3.97</v>
+      </c>
+      <c r="H15" s="5">
+        <v>6.17</v>
+      </c>
+      <c r="I15" s="6">
         <v>1550</v>
       </c>
-      <c r="J12" s="17">
+      <c r="J15" s="6">
         <v>1950</v>
       </c>
-      <c r="K12" s="17">
+      <c r="K15" s="6">
+        <f>I15+J15</f>
         <v>3500</v>
       </c>
-      <c r="L12" s="18">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="19">
-        <f>D13-273.15</f>
-        <v>-62.799999999999983</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19">
-        <v>210.35</v>
-      </c>
-      <c r="E13" s="19">
-        <v>5675</v>
-      </c>
-      <c r="F13" s="19">
-        <v>54.33</v>
-      </c>
-      <c r="G13" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="H13" s="20">
-        <v>12.33</v>
-      </c>
-      <c r="I13" s="21">
+      <c r="L15" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <f>D16-273.15</f>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="8">
+        <v>10</v>
+      </c>
+      <c r="D16" s="9">
+        <v>297</v>
+      </c>
+      <c r="E16" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F16" s="8">
+        <v>47.14</v>
+      </c>
+      <c r="G16" s="10">
+        <v>3.98</v>
+      </c>
+      <c r="H16" s="10">
+        <v>5.56</v>
+      </c>
+      <c r="I16" s="11">
         <v>1550</v>
       </c>
-      <c r="J13" s="21">
+      <c r="J16" s="11">
         <v>1950</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K16" s="11">
         <v>3500</v>
       </c>
-      <c r="L13" s="22">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G14" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K15" s="3" t="s">
+      <c r="L16" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="12">
+        <f t="shared" ref="A17:A20" si="3">D17-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="12">
         <v>20</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <f>D16-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E16" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F16" s="4">
-        <v>45.89</v>
-      </c>
-      <c r="G16" s="5">
-        <v>3.63</v>
-      </c>
-      <c r="H16" s="5">
-        <v>5.41</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1750</v>
-      </c>
-      <c r="J16" s="6">
-        <v>2000</v>
-      </c>
-      <c r="K16" s="6">
-        <f t="shared" ref="K16:K26" si="1">I16+J16</f>
-        <v>3750</v>
-      </c>
-      <c r="L16" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
-        <f>D17-273.15</f>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="8">
-        <v>10</v>
-      </c>
-      <c r="D17" s="9">
-        <v>297</v>
-      </c>
-      <c r="E17" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F17" s="8">
-        <v>47.33</v>
-      </c>
-      <c r="G17" s="10">
-        <v>3.75</v>
-      </c>
-      <c r="H17" s="10">
-        <v>4.82</v>
-      </c>
-      <c r="I17" s="11">
-        <v>1750</v>
-      </c>
-      <c r="J17" s="11">
-        <v>2000</v>
-      </c>
-      <c r="K17" s="23">
-        <f t="shared" si="1"/>
-        <v>3750</v>
-      </c>
-      <c r="L17" s="10">
+      <c r="D17" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E17" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F17" s="12">
+        <v>48.42</v>
+      </c>
+      <c r="G17" s="13">
+        <v>3.1</v>
+      </c>
+      <c r="H17" s="13">
+        <v>6</v>
+      </c>
+      <c r="I17" s="14">
+        <v>1550</v>
+      </c>
+      <c r="J17" s="14">
+        <v>1950</v>
+      </c>
+      <c r="K17" s="14">
+        <v>3500</v>
+      </c>
+      <c r="L17" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
-        <f t="shared" ref="A18:A21" si="2">D18-273.15</f>
-        <v>14.410000000000025</v>
+        <f t="shared" si="3"/>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C18" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D18" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E18" s="12">
-        <v>7971.48</v>
+        <v>7719.4</v>
       </c>
       <c r="F18" s="12">
-        <v>48.61</v>
+        <v>50.41</v>
       </c>
       <c r="G18" s="13">
-        <v>2.85</v>
+        <v>1.47</v>
       </c>
       <c r="H18" s="13">
-        <v>5.29</v>
+        <v>5.82</v>
       </c>
       <c r="I18" s="14">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="J18" s="14">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="K18" s="14">
-        <f t="shared" si="1"/>
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="L18" s="13">
         <v>0.31</v>
@@ -3539,39 +3580,38 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
-        <f t="shared" si="2"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="3"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C19" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D19" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E19" s="12">
-        <v>7719.4</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E19" s="13">
+        <v>7492.43</v>
       </c>
       <c r="F19" s="12">
-        <v>50.6</v>
+        <v>51.36</v>
       </c>
       <c r="G19" s="13">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="H19" s="13">
-        <v>5.13</v>
+        <v>5.47</v>
       </c>
       <c r="I19" s="14">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="J19" s="14">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="K19" s="14">
-        <f t="shared" si="1"/>
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="L19" s="13">
         <v>0.31</v>
@@ -3579,39 +3619,38 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
-        <f t="shared" si="2"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="3"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D20" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E20" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E20" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F20" s="12">
-        <v>51.51</v>
+        <v>52.46</v>
       </c>
       <c r="G20" s="13">
-        <v>0.95</v>
+        <v>0.63</v>
       </c>
       <c r="H20" s="13">
-        <v>4.9000000000000004</v>
+        <v>5.19</v>
       </c>
       <c r="I20" s="14">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="J20" s="14">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="K20" s="14">
-        <f t="shared" si="1"/>
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="L20" s="13">
         <v>0.31</v>
@@ -3619,39 +3658,38 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
-        <f t="shared" si="2"/>
-        <v>-13.689999999999998</v>
+        <f>D21-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" s="12">
-        <v>50</v>
-      </c>
-      <c r="D21" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D21" s="13">
+        <v>251.62</v>
       </c>
       <c r="E21" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F21" s="12">
-        <v>52.63</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F21" s="13">
+        <v>53.16</v>
       </c>
       <c r="G21" s="13">
-        <v>0.56999999999999995</v>
+        <v>0.51</v>
       </c>
       <c r="H21" s="13">
-        <v>4.54</v>
+        <v>5.03</v>
       </c>
       <c r="I21" s="14">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="J21" s="14">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="K21" s="14">
-        <f t="shared" si="1"/>
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="L21" s="13">
         <v>0.31</v>
@@ -3660,38 +3698,37 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="12">
         <f>D22-273.15</f>
-        <v>-21.529999999999973</v>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" s="12">
-        <v>60</v>
-      </c>
-      <c r="D22" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D22" s="12">
+        <v>244.1</v>
       </c>
       <c r="E22" s="12">
-        <v>7024.97</v>
-      </c>
-      <c r="F22" s="13">
-        <v>53.3</v>
+        <v>6908.85</v>
+      </c>
+      <c r="F22" s="12">
+        <v>53.35</v>
       </c>
       <c r="G22" s="13">
-        <v>0.41</v>
+        <v>0.46</v>
       </c>
       <c r="H22" s="13">
-        <v>4.43</v>
+        <v>6</v>
       </c>
       <c r="I22" s="14">
-        <v>1750</v>
+        <v>1550</v>
       </c>
       <c r="J22" s="14">
-        <v>2000</v>
+        <v>1950</v>
       </c>
       <c r="K22" s="14">
-        <f t="shared" si="1"/>
-        <v>3750</v>
+        <v>3500</v>
       </c>
       <c r="L22" s="13">
         <v>0.31</v>
@@ -3700,318 +3737,315 @@
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="12">
         <f>D23-273.15</f>
-        <v>-29.049999999999983</v>
+        <v>-36.95999999999998</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D23" s="12">
-        <v>244.1</v>
+        <v>236.19</v>
       </c>
       <c r="E23" s="12">
-        <v>6908.85</v>
-      </c>
-      <c r="F23" s="13">
-        <v>53.47</v>
+        <v>6845.67</v>
+      </c>
+      <c r="F23" s="12">
+        <v>52.88</v>
       </c>
       <c r="G23" s="13">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
       <c r="H23" s="13">
-        <v>5.48</v>
+        <v>9.31</v>
       </c>
       <c r="I23" s="14">
+        <v>1550</v>
+      </c>
+      <c r="J23" s="14">
+        <v>1950</v>
+      </c>
+      <c r="K23" s="14">
+        <v>3500</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="15">
+        <f>D24-273.15</f>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="16">
+        <v>91</v>
+      </c>
+      <c r="D24" s="16">
+        <v>224.76</v>
+      </c>
+      <c r="E24" s="16">
+        <v>6540.09</v>
+      </c>
+      <c r="F24" s="16">
+        <v>52.47</v>
+      </c>
+      <c r="G24" s="15">
+        <v>0.24</v>
+      </c>
+      <c r="H24" s="15">
+        <v>14.23</v>
+      </c>
+      <c r="I24" s="17">
+        <v>1550</v>
+      </c>
+      <c r="J24" s="17">
+        <v>1950</v>
+      </c>
+      <c r="K24" s="17">
+        <v>3500</v>
+      </c>
+      <c r="L24" s="18">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="19">
+        <f>D25-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E25" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F25" s="19">
+        <v>54.33</v>
+      </c>
+      <c r="G25" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="H25" s="20">
+        <v>12.33</v>
+      </c>
+      <c r="I25" s="21">
+        <v>1550</v>
+      </c>
+      <c r="J25" s="21">
+        <v>1950</v>
+      </c>
+      <c r="K25" s="21">
+        <v>3500</v>
+      </c>
+      <c r="L25" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="49.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="4">
+        <f>D28-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E28" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F28" s="4">
+        <v>45.89</v>
+      </c>
+      <c r="G28" s="5">
+        <v>3.63</v>
+      </c>
+      <c r="H28" s="5">
+        <v>5.41</v>
+      </c>
+      <c r="I28" s="6">
         <v>1750</v>
       </c>
-      <c r="J23" s="14">
+      <c r="J28" s="6">
         <v>2000</v>
       </c>
-      <c r="K23" s="14">
-        <f t="shared" si="1"/>
+      <c r="K28" s="6">
+        <f t="shared" ref="K28:K38" si="4">I28+J28</f>
         <v>3750</v>
       </c>
-      <c r="L23" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="12">
-        <f>D24-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="12">
-        <v>80</v>
-      </c>
-      <c r="D24" s="12">
-        <v>236.19</v>
-      </c>
-      <c r="E24" s="12">
-        <v>6845.67</v>
-      </c>
-      <c r="F24" s="12">
-        <v>52.95</v>
-      </c>
-      <c r="G24" s="13">
-        <v>0.36</v>
-      </c>
-      <c r="H24" s="13">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="I24" s="14">
+      <c r="L28" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <f>D29-273.15</f>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="8">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9">
+        <v>297</v>
+      </c>
+      <c r="E29" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F29" s="8">
+        <v>47.33</v>
+      </c>
+      <c r="G29" s="10">
+        <v>3.75</v>
+      </c>
+      <c r="H29" s="10">
+        <v>4.82</v>
+      </c>
+      <c r="I29" s="11">
         <v>1750</v>
       </c>
-      <c r="J24" s="14">
+      <c r="J29" s="11">
         <v>2000</v>
       </c>
-      <c r="K24" s="14">
-        <f t="shared" si="1"/>
+      <c r="K29" s="23">
+        <f t="shared" si="4"/>
         <v>3750</v>
       </c>
-      <c r="L24" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="15">
-        <f>D25-273.15</f>
-        <v>-48.389999999999986</v>
-      </c>
-      <c r="B25" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="16">
-        <v>91</v>
-      </c>
-      <c r="D25" s="16">
-        <v>224.76</v>
-      </c>
-      <c r="E25" s="16">
-        <v>6540.09</v>
-      </c>
-      <c r="F25" s="16">
-        <v>52.49</v>
-      </c>
-      <c r="G25" s="15">
-        <v>0.21</v>
-      </c>
-      <c r="H25" s="15">
-        <v>14.1</v>
-      </c>
-      <c r="I25" s="17">
+      <c r="L29" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="12">
+        <f t="shared" ref="A30:A33" si="5">D30-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="12">
+        <v>20</v>
+      </c>
+      <c r="D30" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E30" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F30" s="12">
+        <v>48.61</v>
+      </c>
+      <c r="G30" s="13">
+        <v>2.85</v>
+      </c>
+      <c r="H30" s="13">
+        <v>5.29</v>
+      </c>
+      <c r="I30" s="14">
         <v>1750</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J30" s="14">
         <v>2000</v>
       </c>
-      <c r="K25" s="17">
-        <f t="shared" si="1"/>
+      <c r="K30" s="14">
+        <f t="shared" si="4"/>
         <v>3750</v>
       </c>
-      <c r="L25" s="18">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="19">
-        <f>D26-273.15</f>
-        <v>-62.799999999999983</v>
-      </c>
-      <c r="B26" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19">
-        <v>210.35</v>
-      </c>
-      <c r="E26" s="19">
-        <v>5675</v>
-      </c>
-      <c r="F26" s="20">
-        <v>54.34</v>
-      </c>
-      <c r="G26" s="20">
-        <v>0.02</v>
-      </c>
-      <c r="H26" s="20">
-        <v>12.29</v>
-      </c>
-      <c r="I26" s="21">
-        <v>1750</v>
-      </c>
-      <c r="J26" s="21">
-        <v>2000</v>
-      </c>
-      <c r="K26" s="21">
-        <f t="shared" si="1"/>
-        <v>3750</v>
-      </c>
-      <c r="L26" s="22">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G27" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="4">
-        <f>D29-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E29" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F29" s="4">
-        <v>46.29</v>
-      </c>
-      <c r="G29" s="5">
-        <v>1.3</v>
-      </c>
-      <c r="H29" s="5">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="I29" s="6">
-        <v>2250</v>
-      </c>
-      <c r="J29" s="6">
-        <v>2500</v>
-      </c>
-      <c r="K29" s="6">
-        <f>I29+J29</f>
-        <v>4750</v>
-      </c>
-      <c r="L29" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A30" s="7">
-        <f>D30-273.15</f>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="8">
-        <v>10</v>
-      </c>
-      <c r="D30" s="9">
-        <v>297</v>
-      </c>
-      <c r="E30" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F30" s="8">
-        <v>47.76</v>
-      </c>
-      <c r="G30" s="10">
-        <v>1.46</v>
-      </c>
-      <c r="H30" s="10">
-        <v>3.14</v>
-      </c>
-      <c r="I30" s="23">
-        <v>2250</v>
-      </c>
-      <c r="J30" s="23">
-        <v>2500</v>
-      </c>
-      <c r="K30" s="23">
-        <f>I30+J30</f>
-        <v>4750</v>
-      </c>
-      <c r="L30" s="7">
+      <c r="L30" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="12">
-        <f t="shared" ref="A31:A34" si="3">D31-273.15</f>
-        <v>14.410000000000025</v>
+        <f t="shared" si="5"/>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C31" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D31" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E31" s="12">
-        <v>7971.48</v>
+        <v>7719.4</v>
       </c>
       <c r="F31" s="12">
-        <v>49.01</v>
+        <v>50.6</v>
       </c>
       <c r="G31" s="13">
-        <v>1.05</v>
+        <v>1.29</v>
       </c>
       <c r="H31" s="13">
-        <v>3.78</v>
+        <v>5.13</v>
       </c>
       <c r="I31" s="14">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="J31" s="14">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K31" s="14">
-        <f>I31+J31</f>
-        <v>4750</v>
+        <f t="shared" si="4"/>
+        <v>3750</v>
       </c>
       <c r="L31" s="13">
         <v>0.31</v>
@@ -4019,39 +4053,39 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="12">
-        <f t="shared" si="3"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="5"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C32" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D32" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E32" s="12">
-        <v>7719.4</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E32" s="13">
+        <v>7492.43</v>
       </c>
       <c r="F32" s="12">
-        <v>50.91</v>
+        <v>51.51</v>
       </c>
       <c r="G32" s="13">
-        <v>0.4</v>
+        <v>0.95</v>
       </c>
       <c r="H32" s="13">
-        <v>3.99</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I32" s="14">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="J32" s="14">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K32" s="14">
-        <f t="shared" ref="K32:K38" si="4">I32+J32</f>
-        <v>4750</v>
+        <f t="shared" si="4"/>
+        <v>3750</v>
       </c>
       <c r="L32" s="13">
         <v>0.31</v>
@@ -4059,39 +4093,39 @@
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="12">
-        <f t="shared" si="3"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="5"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C33" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D33" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E33" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E33" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F33" s="12">
-        <v>51.82</v>
+        <v>52.63</v>
       </c>
       <c r="G33" s="13">
-        <v>0.26</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="H33" s="13">
-        <v>3.72</v>
+        <v>4.54</v>
       </c>
       <c r="I33" s="14">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="J33" s="14">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K33" s="14">
         <f t="shared" si="4"/>
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="L33" s="13">
         <v>0.31</v>
@@ -4099,39 +4133,39 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="12">
-        <f t="shared" si="3"/>
-        <v>-13.689999999999998</v>
+        <f>D34-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C34" s="12">
-        <v>50</v>
-      </c>
-      <c r="D34" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D34" s="13">
+        <v>251.62</v>
       </c>
       <c r="E34" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F34" s="12">
-        <v>52.91</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F34" s="13">
+        <v>53.3</v>
       </c>
       <c r="G34" s="13">
-        <v>0.15</v>
+        <v>0.41</v>
       </c>
       <c r="H34" s="13">
-        <v>3.44</v>
+        <v>4.43</v>
       </c>
       <c r="I34" s="14">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="J34" s="14">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K34" s="14">
         <f t="shared" si="4"/>
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="L34" s="13">
         <v>0.31</v>
@@ -4140,38 +4174,38 @@
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="12">
         <f>D35-273.15</f>
-        <v>-21.529999999999973</v>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C35" s="12">
-        <v>60</v>
-      </c>
-      <c r="D35" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D35" s="12">
+        <v>244.1</v>
       </c>
       <c r="E35" s="12">
-        <v>7024.97</v>
+        <v>6908.85</v>
       </c>
       <c r="F35" s="13">
-        <v>53.57</v>
+        <v>53.47</v>
       </c>
       <c r="G35" s="13">
-        <v>0.11</v>
+        <v>0.42</v>
       </c>
       <c r="H35" s="13">
-        <v>3.31</v>
+        <v>5.48</v>
       </c>
       <c r="I35" s="14">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="J35" s="14">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K35" s="14">
         <f t="shared" si="4"/>
-        <v>4750</v>
+        <v>3750</v>
       </c>
       <c r="L35" s="13">
         <v>0.31</v>
@@ -4180,318 +4214,318 @@
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="12">
         <f>D36-273.15</f>
-        <v>-29.049999999999983</v>
+        <v>-36.95999999999998</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C36" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D36" s="12">
-        <v>244.1</v>
+        <v>236.19</v>
       </c>
       <c r="E36" s="12">
-        <v>6908.85</v>
+        <v>6845.67</v>
       </c>
       <c r="F36" s="12">
-        <v>53.67</v>
+        <v>52.95</v>
       </c>
       <c r="G36" s="13">
-        <v>0.11</v>
+        <v>0.36</v>
       </c>
       <c r="H36" s="13">
-        <v>4.5999999999999996</v>
+        <v>8.9700000000000006</v>
       </c>
       <c r="I36" s="14">
-        <v>2250</v>
+        <v>1750</v>
       </c>
       <c r="J36" s="14">
-        <v>2500</v>
+        <v>2000</v>
       </c>
       <c r="K36" s="14">
         <f t="shared" si="4"/>
+        <v>3750</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="15">
+        <f>D37-273.15</f>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="16">
+        <v>91</v>
+      </c>
+      <c r="D37" s="16">
+        <v>224.76</v>
+      </c>
+      <c r="E37" s="16">
+        <v>6540.09</v>
+      </c>
+      <c r="F37" s="16">
+        <v>52.49</v>
+      </c>
+      <c r="G37" s="15">
+        <v>0.21</v>
+      </c>
+      <c r="H37" s="15">
+        <v>14.1</v>
+      </c>
+      <c r="I37" s="17">
+        <v>1750</v>
+      </c>
+      <c r="J37" s="17">
+        <v>2000</v>
+      </c>
+      <c r="K37" s="17">
+        <f t="shared" si="4"/>
+        <v>3750</v>
+      </c>
+      <c r="L37" s="18">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="19">
+        <f>D38-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E38" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F38" s="20">
+        <v>54.34</v>
+      </c>
+      <c r="G38" s="20">
+        <v>0.02</v>
+      </c>
+      <c r="H38" s="20">
+        <v>12.29</v>
+      </c>
+      <c r="I38" s="21">
+        <v>1750</v>
+      </c>
+      <c r="J38" s="21">
+        <v>2000</v>
+      </c>
+      <c r="K38" s="21">
+        <f t="shared" si="4"/>
+        <v>3750</v>
+      </c>
+      <c r="L38" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K40" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4">
+        <f>D41-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E41" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F41" s="4">
+        <v>46.29</v>
+      </c>
+      <c r="G41" s="5">
+        <v>1.3</v>
+      </c>
+      <c r="H41" s="5">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="I41" s="6">
+        <v>2250</v>
+      </c>
+      <c r="J41" s="6">
+        <v>2500</v>
+      </c>
+      <c r="K41" s="6">
+        <f>I41+J41</f>
         <v>4750</v>
       </c>
-      <c r="L36" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="12">
-        <f>D37-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="12">
-        <v>80</v>
-      </c>
-      <c r="D37" s="12">
-        <v>236.19</v>
-      </c>
-      <c r="E37" s="12">
-        <v>6845.67</v>
-      </c>
-      <c r="F37" s="12">
-        <v>53.03</v>
-      </c>
-      <c r="G37" s="13">
-        <v>0.12</v>
-      </c>
-      <c r="H37" s="13">
-        <v>8.59</v>
-      </c>
-      <c r="I37" s="14">
+      <c r="L41" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <f>D42-273.15</f>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C42" s="8">
+        <v>10</v>
+      </c>
+      <c r="D42" s="9">
+        <v>297</v>
+      </c>
+      <c r="E42" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F42" s="8">
+        <v>47.76</v>
+      </c>
+      <c r="G42" s="10">
+        <v>1.46</v>
+      </c>
+      <c r="H42" s="10">
+        <v>3.14</v>
+      </c>
+      <c r="I42" s="23">
         <v>2250</v>
       </c>
-      <c r="J37" s="14">
+      <c r="J42" s="23">
         <v>2500</v>
       </c>
-      <c r="K37" s="14">
-        <f t="shared" si="4"/>
+      <c r="K42" s="23">
+        <f>I42+J42</f>
         <v>4750</v>
       </c>
-      <c r="L37" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="15">
-        <f>D38-273.15</f>
-        <v>-48.389999999999986</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C38" s="16">
-        <v>91</v>
-      </c>
-      <c r="D38" s="16">
-        <v>224.76</v>
-      </c>
-      <c r="E38" s="16">
-        <v>6540.09</v>
-      </c>
-      <c r="F38" s="16">
-        <v>52.53</v>
-      </c>
-      <c r="G38" s="15">
-        <v>0.06</v>
-      </c>
-      <c r="H38" s="15">
-        <v>13.93</v>
-      </c>
-      <c r="I38" s="24">
+      <c r="L42" s="7">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="12">
+        <f t="shared" ref="A43:A46" si="6">D43-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" s="12">
+        <v>20</v>
+      </c>
+      <c r="D43" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E43" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F43" s="12">
+        <v>49.01</v>
+      </c>
+      <c r="G43" s="13">
+        <v>1.05</v>
+      </c>
+      <c r="H43" s="13">
+        <v>3.78</v>
+      </c>
+      <c r="I43" s="14">
         <v>2250</v>
       </c>
-      <c r="J38" s="24">
+      <c r="J43" s="14">
         <v>2500</v>
       </c>
-      <c r="K38" s="24">
-        <f t="shared" si="4"/>
+      <c r="K43" s="14">
+        <f>I43+J43</f>
         <v>4750</v>
       </c>
-      <c r="L38" s="15">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="19">
-        <f>D39-273.15</f>
-        <v>-62.799999999999983</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19">
-        <v>210.35</v>
-      </c>
-      <c r="E39" s="19">
-        <v>5675</v>
-      </c>
-      <c r="F39" s="20">
-        <v>54.34</v>
-      </c>
-      <c r="G39" s="26">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H39" s="20">
-        <v>12.25</v>
-      </c>
-      <c r="I39" s="21">
-        <v>2250</v>
-      </c>
-      <c r="J39" s="21">
-        <v>2500</v>
-      </c>
-      <c r="K39" s="21">
-        <f>I39+J39</f>
-        <v>4750</v>
-      </c>
-      <c r="L39" s="22">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G40" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J41" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L41" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="4">
-        <f>D42-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E42" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F42" s="4">
-        <v>46.53</v>
-      </c>
-      <c r="G42" s="5">
-        <v>0.43</v>
-      </c>
-      <c r="H42" s="5">
-        <v>3.22</v>
-      </c>
-      <c r="I42" s="6">
-        <v>2750</v>
-      </c>
-      <c r="J42" s="6">
-        <v>3000</v>
-      </c>
-      <c r="K42" s="6">
-        <f>I42+J42</f>
-        <v>5750</v>
-      </c>
-      <c r="L42" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A43" s="7">
-        <f>D43-273.15</f>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C43" s="8">
-        <v>10</v>
-      </c>
-      <c r="D43" s="9">
-        <v>297</v>
-      </c>
-      <c r="E43" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F43" s="8">
-        <v>47.99</v>
-      </c>
-      <c r="G43" s="10">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H43" s="10">
-        <v>2.25</v>
-      </c>
-      <c r="I43" s="23">
-        <v>2750</v>
-      </c>
-      <c r="J43" s="23">
-        <v>3000</v>
-      </c>
-      <c r="K43" s="23">
-        <f>I43+J43</f>
-        <v>5750</v>
-      </c>
-      <c r="L43" s="10">
+      <c r="L43" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="12">
-        <f t="shared" ref="A44:A47" si="5">D44-273.15</f>
-        <v>14.410000000000025</v>
+        <f t="shared" si="6"/>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C44" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D44" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E44" s="12">
-        <v>7971.48</v>
+        <v>7719.4</v>
       </c>
       <c r="F44" s="12">
-        <v>49.24</v>
+        <v>50.91</v>
       </c>
       <c r="G44" s="13">
-        <v>0.36</v>
+        <v>0.4</v>
       </c>
       <c r="H44" s="13">
-        <v>2.91</v>
+        <v>3.99</v>
       </c>
       <c r="I44" s="14">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="J44" s="14">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K44" s="14">
-        <f>I44+J44</f>
-        <v>5750</v>
+        <f t="shared" ref="K44:K50" si="7">I44+J44</f>
+        <v>4750</v>
       </c>
       <c r="L44" s="13">
         <v>0.31</v>
@@ -4499,39 +4533,39 @@
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="12">
-        <f t="shared" si="5"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="6"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C45" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D45" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E45" s="12">
-        <v>7719.4</v>
-      </c>
-      <c r="F45" s="13">
-        <v>51.12</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E45" s="13">
+        <v>7492.43</v>
+      </c>
+      <c r="F45" s="12">
+        <v>51.82</v>
       </c>
       <c r="G45" s="13">
-        <v>0.12</v>
+        <v>0.26</v>
       </c>
       <c r="H45" s="13">
-        <v>3.22</v>
+        <v>3.72</v>
       </c>
       <c r="I45" s="14">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="J45" s="14">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K45" s="14">
-        <f t="shared" ref="K45:K52" si="6">I45+J45</f>
-        <v>5750</v>
+        <f t="shared" si="7"/>
+        <v>4750</v>
       </c>
       <c r="L45" s="13">
         <v>0.31</v>
@@ -4539,39 +4573,39 @@
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="12">
-        <f t="shared" si="5"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="6"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C46" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D46" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E46" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E46" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F46" s="12">
-        <v>52.02</v>
+        <v>52.91</v>
       </c>
       <c r="G46" s="13">
-        <v>7.0000000000000007E-2</v>
+        <v>0.15</v>
       </c>
       <c r="H46" s="13">
-        <v>3</v>
+        <v>3.44</v>
       </c>
       <c r="I46" s="14">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="J46" s="14">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K46" s="14">
-        <f t="shared" si="6"/>
-        <v>5750</v>
+        <f t="shared" si="7"/>
+        <v>4750</v>
       </c>
       <c r="L46" s="13">
         <v>0.31</v>
@@ -4579,39 +4613,39 @@
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="12">
-        <f t="shared" si="5"/>
-        <v>-13.689999999999998</v>
+        <f>D47-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C47" s="12">
-        <v>50</v>
-      </c>
-      <c r="D47" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D47" s="13">
+        <v>251.62</v>
       </c>
       <c r="E47" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F47" s="12">
-        <v>53.09</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F47" s="13">
+        <v>53.57</v>
       </c>
       <c r="G47" s="13">
-        <v>0.04</v>
+        <v>0.11</v>
       </c>
       <c r="H47" s="13">
-        <v>2.76</v>
+        <v>3.31</v>
       </c>
       <c r="I47" s="14">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="J47" s="14">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K47" s="14">
-        <f t="shared" si="6"/>
-        <v>5750</v>
+        <f t="shared" si="7"/>
+        <v>4750</v>
       </c>
       <c r="L47" s="13">
         <v>0.31</v>
@@ -4620,38 +4654,38 @@
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="12">
         <f>D48-273.15</f>
-        <v>-21.529999999999973</v>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C48" s="12">
-        <v>60</v>
-      </c>
-      <c r="D48" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D48" s="12">
+        <v>244.1</v>
       </c>
       <c r="E48" s="12">
-        <v>7024.97</v>
-      </c>
-      <c r="F48" s="13">
-        <v>53.73</v>
+        <v>6908.85</v>
+      </c>
+      <c r="F48" s="12">
+        <v>53.67</v>
       </c>
       <c r="G48" s="13">
-        <v>0.03</v>
+        <v>0.11</v>
       </c>
       <c r="H48" s="13">
-        <v>2.66</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="I48" s="14">
-        <v>2750</v>
+        <v>2250</v>
       </c>
       <c r="J48" s="14">
-        <v>3000</v>
+        <v>2500</v>
       </c>
       <c r="K48" s="14">
-        <f t="shared" si="6"/>
-        <v>5750</v>
+        <f t="shared" si="7"/>
+        <v>4750</v>
       </c>
       <c r="L48" s="13">
         <v>0.31</v>
@@ -4660,314 +4694,318 @@
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="12">
         <f>D49-273.15</f>
-        <v>-29.049999999999983</v>
+        <v>-36.95999999999998</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C49" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D49" s="12">
-        <v>244.1</v>
+        <v>236.19</v>
       </c>
       <c r="E49" s="12">
-        <v>6908.85</v>
-      </c>
-      <c r="F49" s="13">
-        <v>53.74</v>
+        <v>6845.67</v>
+      </c>
+      <c r="F49" s="12">
+        <v>53.03</v>
       </c>
       <c r="G49" s="13">
-        <v>0.03</v>
+        <v>0.12</v>
       </c>
       <c r="H49" s="13">
-        <v>4.28</v>
+        <v>8.59</v>
       </c>
       <c r="I49" s="14">
+        <v>2250</v>
+      </c>
+      <c r="J49" s="14">
+        <v>2500</v>
+      </c>
+      <c r="K49" s="14">
+        <f t="shared" si="7"/>
+        <v>4750</v>
+      </c>
+      <c r="L49" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="15">
+        <f>D50-273.15</f>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C50" s="16">
+        <v>91</v>
+      </c>
+      <c r="D50" s="16">
+        <v>224.76</v>
+      </c>
+      <c r="E50" s="16">
+        <v>6540.09</v>
+      </c>
+      <c r="F50" s="16">
+        <v>52.53</v>
+      </c>
+      <c r="G50" s="15">
+        <v>0.06</v>
+      </c>
+      <c r="H50" s="15">
+        <v>13.93</v>
+      </c>
+      <c r="I50" s="24">
+        <v>2250</v>
+      </c>
+      <c r="J50" s="24">
+        <v>2500</v>
+      </c>
+      <c r="K50" s="24">
+        <f t="shared" si="7"/>
+        <v>4750</v>
+      </c>
+      <c r="L50" s="15">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="19">
+        <f>D51-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" s="19"/>
+      <c r="D51" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E51" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F51" s="20">
+        <v>54.34</v>
+      </c>
+      <c r="G51" s="26">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H51" s="20">
+        <v>12.25</v>
+      </c>
+      <c r="I51" s="21">
+        <v>2250</v>
+      </c>
+      <c r="J51" s="21">
+        <v>2500</v>
+      </c>
+      <c r="K51" s="21">
+        <f>I51+J51</f>
+        <v>4750</v>
+      </c>
+      <c r="L51" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I53" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J53" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A54" s="4">
+        <f>D54-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E54" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F54" s="4">
+        <v>46.53</v>
+      </c>
+      <c r="G54" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="H54" s="5">
+        <v>3.22</v>
+      </c>
+      <c r="I54" s="6">
         <v>2750</v>
       </c>
-      <c r="J49" s="14">
+      <c r="J54" s="6">
         <v>3000</v>
       </c>
-      <c r="K49" s="14">
-        <f t="shared" si="6"/>
+      <c r="K54" s="6">
+        <f>I54+J54</f>
         <v>5750</v>
       </c>
-      <c r="L49" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A50" s="12">
-        <f>D50-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50" s="12">
-        <v>80</v>
-      </c>
-      <c r="D50" s="12">
-        <v>236.19</v>
-      </c>
-      <c r="E50" s="12">
-        <v>6845.67</v>
-      </c>
-      <c r="F50" s="12">
-        <v>53.04</v>
-      </c>
-      <c r="G50" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="H50" s="13">
-        <v>8.49</v>
-      </c>
-      <c r="I50" s="14">
+      <c r="L54" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <f>D55-273.15</f>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C55" s="8">
+        <v>10</v>
+      </c>
+      <c r="D55" s="9">
+        <v>297</v>
+      </c>
+      <c r="E55" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F55" s="8">
+        <v>47.99</v>
+      </c>
+      <c r="G55" s="10">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H55" s="10">
+        <v>2.25</v>
+      </c>
+      <c r="I55" s="23">
         <v>2750</v>
       </c>
-      <c r="J50" s="14">
+      <c r="J55" s="23">
         <v>3000</v>
       </c>
-      <c r="K50" s="14">
-        <f t="shared" si="6"/>
+      <c r="K55" s="23">
+        <f>I55+J55</f>
         <v>5750</v>
       </c>
-      <c r="L50" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="15">
-        <f>D51-273.15</f>
-        <v>-48.389999999999986</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="16">
-        <v>91</v>
-      </c>
-      <c r="D51" s="16">
-        <v>224.76</v>
-      </c>
-      <c r="E51" s="16">
-        <v>6540.09</v>
-      </c>
-      <c r="F51" s="16">
-        <v>52.54</v>
-      </c>
-      <c r="G51" s="15">
-        <v>0.02</v>
-      </c>
-      <c r="H51" s="15">
-        <v>13.88</v>
-      </c>
-      <c r="I51" s="17">
+      <c r="L55" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="12">
+        <f t="shared" ref="A56:A59" si="8">D56-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" s="12">
+        <v>20</v>
+      </c>
+      <c r="D56" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E56" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F56" s="12">
+        <v>49.24</v>
+      </c>
+      <c r="G56" s="13">
+        <v>0.36</v>
+      </c>
+      <c r="H56" s="13">
+        <v>2.91</v>
+      </c>
+      <c r="I56" s="14">
         <v>2750</v>
       </c>
-      <c r="J51" s="17">
+      <c r="J56" s="14">
         <v>3000</v>
       </c>
-      <c r="K51" s="17">
-        <f t="shared" si="6"/>
+      <c r="K56" s="14">
+        <f>I56+J56</f>
         <v>5750</v>
       </c>
-      <c r="L51" s="18">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="19">
-        <f>D52-273.15</f>
-        <v>-62.799999999999983</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" s="19"/>
-      <c r="D52" s="19">
-        <v>210.35</v>
-      </c>
-      <c r="E52" s="19">
-        <v>5675</v>
-      </c>
-      <c r="F52" s="20">
-        <v>54.34</v>
-      </c>
-      <c r="G52" s="27">
-        <v>1E-3</v>
-      </c>
-      <c r="H52" s="20">
-        <v>12.24</v>
-      </c>
-      <c r="I52" s="21">
-        <v>2750</v>
-      </c>
-      <c r="J52" s="21">
-        <v>3000</v>
-      </c>
-      <c r="K52" s="21">
-        <f t="shared" si="6"/>
-        <v>5750</v>
-      </c>
-      <c r="L52" s="22">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G53" s="2"/>
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="4">
-        <f>D55-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B55" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E55" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F55" s="4">
-        <v>46.68</v>
-      </c>
-      <c r="G55" s="5">
-        <v>0.15</v>
-      </c>
-      <c r="H55" s="5">
-        <v>2.72</v>
-      </c>
-      <c r="I55" s="6">
-        <v>3250</v>
-      </c>
-      <c r="J55" s="6">
-        <v>3500</v>
-      </c>
-      <c r="K55" s="6">
-        <f>I55+J55</f>
-        <v>6750</v>
-      </c>
-      <c r="L55" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A56" s="7">
-        <f>D56-273.15</f>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C56" s="8">
-        <v>10</v>
-      </c>
-      <c r="D56" s="9">
-        <v>297</v>
-      </c>
-      <c r="E56" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F56" s="8">
-        <v>48.14</v>
-      </c>
-      <c r="G56" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="H56" s="10">
-        <v>1.69</v>
-      </c>
-      <c r="I56" s="11">
-        <v>3250</v>
-      </c>
-      <c r="J56" s="11">
-        <v>3500</v>
-      </c>
-      <c r="K56" s="11">
-        <f>I56+J56</f>
-        <v>6750</v>
-      </c>
-      <c r="L56" s="10">
+      <c r="L56" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="12">
-        <f t="shared" ref="A57:A60" si="7">D57-273.15</f>
-        <v>14.410000000000025</v>
+        <f t="shared" si="8"/>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C57" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D57" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E57" s="12">
-        <v>7971.48</v>
-      </c>
-      <c r="F57" s="12">
-        <v>49.38</v>
+        <v>7719.4</v>
+      </c>
+      <c r="F57" s="13">
+        <v>51.12</v>
       </c>
       <c r="G57" s="13">
-        <v>0.14000000000000001</v>
+        <v>0.12</v>
       </c>
       <c r="H57" s="13">
-        <v>2.39</v>
+        <v>3.22</v>
       </c>
       <c r="I57" s="14">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="J57" s="14">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="K57" s="14">
-        <f>I57+J57</f>
-        <v>6750</v>
+        <f t="shared" ref="K57:K64" si="9">I57+J57</f>
+        <v>5750</v>
       </c>
       <c r="L57" s="13">
         <v>0.31</v>
@@ -4975,39 +5013,39 @@
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="12">
-        <f t="shared" si="7"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="8"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C58" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D58" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E58" s="12">
-        <v>7719.4</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E58" s="13">
+        <v>7492.43</v>
       </c>
       <c r="F58" s="12">
-        <v>51.26</v>
+        <v>52.02</v>
       </c>
       <c r="G58" s="13">
-        <v>0.03</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="H58" s="13">
-        <v>2.78</v>
+        <v>3</v>
       </c>
       <c r="I58" s="14">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="J58" s="14">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="K58" s="14">
-        <f t="shared" ref="K58:K65" si="8">I58+J58</f>
-        <v>6750</v>
+        <f t="shared" si="9"/>
+        <v>5750</v>
       </c>
       <c r="L58" s="13">
         <v>0.31</v>
@@ -5015,39 +5053,39 @@
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="12">
-        <f t="shared" si="7"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="8"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C59" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D59" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E59" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E59" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F59" s="12">
-        <v>52.15</v>
+        <v>53.09</v>
       </c>
       <c r="G59" s="13">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="H59" s="13">
-        <v>2.5099999999999998</v>
+        <v>2.76</v>
       </c>
       <c r="I59" s="14">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="J59" s="14">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="K59" s="14">
-        <f t="shared" si="8"/>
-        <v>6750</v>
+        <f t="shared" si="9"/>
+        <v>5750</v>
       </c>
       <c r="L59" s="13">
         <v>0.31</v>
@@ -5055,39 +5093,39 @@
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="12">
-        <f t="shared" si="7"/>
-        <v>-13.689999999999998</v>
+        <f>D60-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C60" s="12">
-        <v>50</v>
-      </c>
-      <c r="D60" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D60" s="13">
+        <v>251.62</v>
       </c>
       <c r="E60" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F60" s="12">
-        <v>53.2</v>
-      </c>
-      <c r="G60" s="28">
-        <v>0.01</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F60" s="13">
+        <v>53.73</v>
+      </c>
+      <c r="G60" s="13">
+        <v>0.03</v>
       </c>
       <c r="H60" s="13">
-        <v>2.2999999999999998</v>
+        <v>2.66</v>
       </c>
       <c r="I60" s="14">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="J60" s="14">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="K60" s="14">
-        <f t="shared" si="8"/>
-        <v>6750</v>
+        <f t="shared" si="9"/>
+        <v>5750</v>
       </c>
       <c r="L60" s="13">
         <v>0.31</v>
@@ -5096,38 +5134,38 @@
     <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="12">
         <f>D61-273.15</f>
-        <v>-21.529999999999973</v>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C61" s="12">
-        <v>60</v>
-      </c>
-      <c r="D61" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D61" s="12">
+        <v>244.1</v>
       </c>
       <c r="E61" s="12">
-        <v>7024.97</v>
+        <v>6908.85</v>
       </c>
       <c r="F61" s="13">
-        <v>53.82</v>
-      </c>
-      <c r="G61" s="28">
-        <v>8.9999999999999993E-3</v>
+        <v>53.74</v>
+      </c>
+      <c r="G61" s="13">
+        <v>0.03</v>
       </c>
       <c r="H61" s="13">
-        <v>2.2999999999999998</v>
+        <v>4.28</v>
       </c>
       <c r="I61" s="14">
-        <v>3250</v>
+        <v>2750</v>
       </c>
       <c r="J61" s="14">
-        <v>3500</v>
+        <v>3000</v>
       </c>
       <c r="K61" s="14">
-        <f t="shared" si="8"/>
-        <v>6750</v>
+        <f t="shared" si="9"/>
+        <v>5750</v>
       </c>
       <c r="L61" s="13">
         <v>0.31</v>
@@ -5136,318 +5174,314 @@
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="12">
         <f>D62-273.15</f>
-        <v>-29.049999999999983</v>
+        <v>-36.95999999999998</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C62" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D62" s="12">
-        <v>244.1</v>
+        <v>236.19</v>
       </c>
       <c r="E62" s="12">
-        <v>6908.85</v>
+        <v>6845.67</v>
       </c>
       <c r="F62" s="12">
-        <v>53.77</v>
-      </c>
-      <c r="G62" s="28">
-        <v>0.01</v>
+        <v>53.04</v>
+      </c>
+      <c r="G62" s="13">
+        <v>0.04</v>
       </c>
       <c r="H62" s="13">
-        <v>4.18</v>
+        <v>8.49</v>
       </c>
       <c r="I62" s="14">
+        <v>2750</v>
+      </c>
+      <c r="J62" s="14">
+        <v>3000</v>
+      </c>
+      <c r="K62" s="14">
+        <f t="shared" si="9"/>
+        <v>5750</v>
+      </c>
+      <c r="L62" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="15">
+        <f>D63-273.15</f>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C63" s="16">
+        <v>91</v>
+      </c>
+      <c r="D63" s="16">
+        <v>224.76</v>
+      </c>
+      <c r="E63" s="16">
+        <v>6540.09</v>
+      </c>
+      <c r="F63" s="16">
+        <v>52.54</v>
+      </c>
+      <c r="G63" s="15">
+        <v>0.02</v>
+      </c>
+      <c r="H63" s="15">
+        <v>13.88</v>
+      </c>
+      <c r="I63" s="17">
+        <v>2750</v>
+      </c>
+      <c r="J63" s="17">
+        <v>3000</v>
+      </c>
+      <c r="K63" s="17">
+        <f t="shared" si="9"/>
+        <v>5750</v>
+      </c>
+      <c r="L63" s="18">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="19">
+        <f>D64-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B64" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" s="19"/>
+      <c r="D64" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E64" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F64" s="20">
+        <v>54.34</v>
+      </c>
+      <c r="G64" s="27">
+        <v>1E-3</v>
+      </c>
+      <c r="H64" s="20">
+        <v>12.24</v>
+      </c>
+      <c r="I64" s="21">
+        <v>2750</v>
+      </c>
+      <c r="J64" s="21">
+        <v>3000</v>
+      </c>
+      <c r="K64" s="21">
+        <f t="shared" si="9"/>
+        <v>5750</v>
+      </c>
+      <c r="L64" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G66" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J66" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K66" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L66" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="4">
+        <f>D67-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E67" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F67" s="4">
+        <v>46.68</v>
+      </c>
+      <c r="G67" s="5">
+        <v>0.15</v>
+      </c>
+      <c r="H67" s="5">
+        <v>2.72</v>
+      </c>
+      <c r="I67" s="6">
         <v>3250</v>
       </c>
-      <c r="J62" s="14">
+      <c r="J67" s="6">
         <v>3500</v>
       </c>
-      <c r="K62" s="14">
-        <f t="shared" si="8"/>
+      <c r="K67" s="6">
+        <f>I67+J67</f>
         <v>6750</v>
       </c>
-      <c r="L62" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A63" s="12">
-        <f>D63-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C63" s="12">
-        <v>80</v>
-      </c>
-      <c r="D63" s="12">
-        <v>236.19</v>
-      </c>
-      <c r="E63" s="12">
-        <v>6845.67</v>
-      </c>
-      <c r="F63" s="12">
-        <v>53.06</v>
-      </c>
-      <c r="G63" s="13">
-        <v>0.01</v>
-      </c>
-      <c r="H63" s="13">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="I63" s="14">
+      <c r="L67" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A68" s="7">
+        <f>D68-273.15</f>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C68" s="8">
+        <v>10</v>
+      </c>
+      <c r="D68" s="9">
+        <v>297</v>
+      </c>
+      <c r="E68" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F68" s="8">
+        <v>48.14</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="H68" s="10">
+        <v>1.69</v>
+      </c>
+      <c r="I68" s="11">
         <v>3250</v>
       </c>
-      <c r="J63" s="14">
+      <c r="J68" s="11">
         <v>3500</v>
       </c>
-      <c r="K63" s="14">
-        <f t="shared" si="8"/>
+      <c r="K68" s="11">
+        <f>I68+J68</f>
         <v>6750</v>
       </c>
-      <c r="L63" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="15">
-        <f>D64-273.15</f>
-        <v>-48.389999999999986</v>
-      </c>
-      <c r="B64" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C64" s="16">
-        <v>91</v>
-      </c>
-      <c r="D64" s="16">
-        <v>224.76</v>
-      </c>
-      <c r="E64" s="16">
-        <v>6540.09</v>
-      </c>
-      <c r="F64" s="16">
-        <v>52.54</v>
-      </c>
-      <c r="G64" s="29">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H64" s="15">
-        <v>13.87</v>
-      </c>
-      <c r="I64" s="14">
+      <c r="L68" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A69" s="12">
+        <f t="shared" ref="A69:A72" si="10">D69-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" s="12">
+        <v>20</v>
+      </c>
+      <c r="D69" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E69" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F69" s="12">
+        <v>49.38</v>
+      </c>
+      <c r="G69" s="13">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="H69" s="13">
+        <v>2.39</v>
+      </c>
+      <c r="I69" s="14">
         <v>3250</v>
       </c>
-      <c r="J64" s="14">
+      <c r="J69" s="14">
         <v>3500</v>
       </c>
-      <c r="K64" s="14">
-        <f t="shared" si="8"/>
+      <c r="K69" s="14">
+        <f>I69+J69</f>
         <v>6750</v>
       </c>
-      <c r="L64" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="65" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="19">
-        <f>D65-273.15</f>
-        <v>-62.799999999999983</v>
-      </c>
-      <c r="B65" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="19"/>
-      <c r="D65" s="19">
-        <v>210.35</v>
-      </c>
-      <c r="E65" s="19">
-        <v>5675</v>
-      </c>
-      <c r="F65" s="20">
-        <v>54.34</v>
-      </c>
-      <c r="G65" s="27">
-        <v>2.9999999999999997E-4</v>
-      </c>
-      <c r="H65" s="20">
-        <v>12.24</v>
-      </c>
-      <c r="I65" s="21">
-        <v>2750</v>
-      </c>
-      <c r="J65" s="21">
-        <v>3000</v>
-      </c>
-      <c r="K65" s="21">
-        <f t="shared" si="8"/>
-        <v>5750</v>
-      </c>
-      <c r="L65" s="22">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="66" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G66" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I67" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J67" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K67" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L67" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="4">
-        <f>D68-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E68" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F68" s="4">
-        <v>46.79</v>
-      </c>
-      <c r="G68" s="5">
-        <v>0.05</v>
-      </c>
-      <c r="H68" s="5">
-        <v>2.36</v>
-      </c>
-      <c r="I68" s="6">
-        <v>3750</v>
-      </c>
-      <c r="J68" s="6">
-        <v>4000</v>
-      </c>
-      <c r="K68" s="6">
-        <f>I68+J68</f>
-        <v>7750</v>
-      </c>
-      <c r="L68" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A69" s="7">
-        <f>D69-273.15</f>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B69" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C69" s="8">
-        <v>10</v>
-      </c>
-      <c r="D69" s="9">
-        <v>297</v>
-      </c>
-      <c r="E69" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F69" s="8">
-        <v>48.25</v>
-      </c>
-      <c r="G69" s="10">
-        <v>0.09</v>
-      </c>
-      <c r="H69" s="10">
-        <v>1.3</v>
-      </c>
-      <c r="I69" s="11">
-        <v>3750</v>
-      </c>
-      <c r="J69" s="11">
-        <v>4000</v>
-      </c>
-      <c r="K69" s="11">
-        <f>I69+J69</f>
-        <v>7750</v>
-      </c>
-      <c r="L69" s="10">
+      <c r="L69" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="12">
-        <f t="shared" ref="A70:A73" si="9">D70-273.15</f>
-        <v>14.410000000000025</v>
+        <f t="shared" si="10"/>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C70" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D70" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E70" s="12">
-        <v>7971.48</v>
+        <v>7719.4</v>
       </c>
       <c r="F70" s="12">
-        <v>49.5</v>
+        <v>51.26</v>
       </c>
       <c r="G70" s="13">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H70" s="13">
-        <v>1.97</v>
+        <v>2.78</v>
       </c>
       <c r="I70" s="14">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="J70" s="14">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K70" s="14">
-        <f>I70+J70</f>
-        <v>7750</v>
+        <f t="shared" ref="K70:K77" si="11">I70+J70</f>
+        <v>6750</v>
       </c>
       <c r="L70" s="13">
         <v>0.31</v>
@@ -5455,39 +5489,39 @@
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="12">
-        <f t="shared" si="9"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="10"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C71" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D71" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E71" s="12">
-        <v>7719.4</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E71" s="13">
+        <v>7492.43</v>
       </c>
       <c r="F71" s="12">
-        <v>51.36</v>
-      </c>
-      <c r="G71" s="28">
-        <v>0.01</v>
+        <v>52.15</v>
+      </c>
+      <c r="G71" s="13">
+        <v>0.02</v>
       </c>
       <c r="H71" s="13">
-        <v>2.4300000000000002</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="I71" s="14">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="J71" s="14">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K71" s="14">
-        <f t="shared" ref="K71:K78" si="10">I71+J71</f>
-        <v>7750</v>
+        <f t="shared" si="11"/>
+        <v>6750</v>
       </c>
       <c r="L71" s="13">
         <v>0.31</v>
@@ -5495,39 +5529,39 @@
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="12">
-        <f t="shared" si="9"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="10"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C72" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D72" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E72" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E72" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F72" s="12">
-        <v>52.23</v>
+        <v>53.2</v>
       </c>
       <c r="G72" s="28">
-        <v>6.0000000000000001E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H72" s="13">
-        <v>2.19</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I72" s="14">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="J72" s="14">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K72" s="14">
-        <f t="shared" si="10"/>
-        <v>7750</v>
+        <f t="shared" si="11"/>
+        <v>6750</v>
       </c>
       <c r="L72" s="13">
         <v>0.31</v>
@@ -5535,39 +5569,39 @@
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="12">
-        <f t="shared" si="9"/>
-        <v>-13.689999999999998</v>
+        <f>D73-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C73" s="12">
-        <v>50</v>
-      </c>
-      <c r="D73" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D73" s="13">
+        <v>251.62</v>
       </c>
       <c r="E73" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F73" s="12">
-        <v>53.29</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F73" s="13">
+        <v>53.82</v>
       </c>
       <c r="G73" s="28">
-        <v>3.0000000000000001E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H73" s="13">
-        <v>2.0299999999999998</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="I73" s="14">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="J73" s="14">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K73" s="14">
-        <f t="shared" si="10"/>
-        <v>7750</v>
+        <f t="shared" si="11"/>
+        <v>6750</v>
       </c>
       <c r="L73" s="13">
         <v>0.31</v>
@@ -5576,38 +5610,38 @@
     <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="12">
         <f>D74-273.15</f>
-        <v>-21.529999999999973</v>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74" s="12">
-        <v>60</v>
-      </c>
-      <c r="D74" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D74" s="12">
+        <v>244.1</v>
       </c>
       <c r="E74" s="12">
-        <v>7024.97</v>
-      </c>
-      <c r="F74" s="13">
-        <v>53.88</v>
+        <v>6908.85</v>
+      </c>
+      <c r="F74" s="12">
+        <v>53.77</v>
       </c>
       <c r="G74" s="28">
-        <v>2E-3</v>
+        <v>0.01</v>
       </c>
       <c r="H74" s="13">
-        <v>2.0499999999999998</v>
+        <v>4.18</v>
       </c>
       <c r="I74" s="14">
-        <v>3750</v>
+        <v>3250</v>
       </c>
       <c r="J74" s="14">
-        <v>4000</v>
+        <v>3500</v>
       </c>
       <c r="K74" s="14">
-        <f t="shared" si="10"/>
-        <v>7750</v>
+        <f t="shared" si="11"/>
+        <v>6750</v>
       </c>
       <c r="L74" s="13">
         <v>0.31</v>
@@ -5616,318 +5650,318 @@
     <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="12">
         <f>D75-273.15</f>
-        <v>-29.049999999999983</v>
+        <v>-36.95999999999998</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D75" s="12">
-        <v>244.1</v>
+        <v>236.19</v>
       </c>
       <c r="E75" s="12">
-        <v>6908.85</v>
+        <v>6845.67</v>
       </c>
       <c r="F75" s="12">
-        <v>53.77</v>
-      </c>
-      <c r="G75" s="28">
-        <v>2E-3</v>
+        <v>53.06</v>
+      </c>
+      <c r="G75" s="13">
+        <v>0.01</v>
       </c>
       <c r="H75" s="13">
-        <v>4.16</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="I75" s="14">
+        <v>3250</v>
+      </c>
+      <c r="J75" s="14">
+        <v>3500</v>
+      </c>
+      <c r="K75" s="14">
+        <f t="shared" si="11"/>
+        <v>6750</v>
+      </c>
+      <c r="L75" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="15">
+        <f>D76-273.15</f>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B76" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76" s="16">
+        <v>91</v>
+      </c>
+      <c r="D76" s="16">
+        <v>224.76</v>
+      </c>
+      <c r="E76" s="16">
+        <v>6540.09</v>
+      </c>
+      <c r="F76" s="16">
+        <v>52.54</v>
+      </c>
+      <c r="G76" s="29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H76" s="15">
+        <v>13.87</v>
+      </c>
+      <c r="I76" s="14">
+        <v>3250</v>
+      </c>
+      <c r="J76" s="14">
+        <v>3500</v>
+      </c>
+      <c r="K76" s="14">
+        <f t="shared" si="11"/>
+        <v>6750</v>
+      </c>
+      <c r="L76" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="19">
+        <f>D77-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" s="19"/>
+      <c r="D77" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E77" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F77" s="20">
+        <v>54.34</v>
+      </c>
+      <c r="G77" s="27">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="H77" s="20">
+        <v>12.24</v>
+      </c>
+      <c r="I77" s="21">
+        <v>2750</v>
+      </c>
+      <c r="J77" s="21">
+        <v>3000</v>
+      </c>
+      <c r="K77" s="21">
+        <f t="shared" si="11"/>
+        <v>5750</v>
+      </c>
+      <c r="L77" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G79" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K79" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L79" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="4">
+        <f>D80-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E80" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F80" s="4">
+        <v>46.79</v>
+      </c>
+      <c r="G80" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="H80" s="5">
+        <v>2.36</v>
+      </c>
+      <c r="I80" s="6">
         <v>3750</v>
       </c>
-      <c r="J75" s="14">
+      <c r="J80" s="6">
         <v>4000</v>
       </c>
-      <c r="K75" s="14">
-        <f t="shared" si="10"/>
+      <c r="K80" s="6">
+        <f>I80+J80</f>
         <v>7750</v>
       </c>
-      <c r="L75" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A76" s="12">
-        <f>D76-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B76" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C76" s="12">
-        <v>80</v>
-      </c>
-      <c r="D76" s="12">
-        <v>236.19</v>
-      </c>
-      <c r="E76" s="12">
-        <v>6845.67</v>
-      </c>
-      <c r="F76" s="12">
-        <v>53.06</v>
-      </c>
-      <c r="G76" s="28">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H76" s="13">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="I76" s="14">
+      <c r="L80" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A81" s="7">
+        <f>D81-273.15</f>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" s="8">
+        <v>10</v>
+      </c>
+      <c r="D81" s="9">
+        <v>297</v>
+      </c>
+      <c r="E81" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F81" s="8">
+        <v>48.25</v>
+      </c>
+      <c r="G81" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="H81" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="I81" s="11">
         <v>3750</v>
       </c>
-      <c r="J76" s="14">
+      <c r="J81" s="11">
         <v>4000</v>
       </c>
-      <c r="K76" s="14">
-        <f t="shared" si="10"/>
+      <c r="K81" s="11">
+        <f>I81+J81</f>
         <v>7750</v>
       </c>
-      <c r="L76" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="15">
-        <f>D77-273.15</f>
-        <v>-48.389999999999986</v>
-      </c>
-      <c r="B77" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C77" s="16">
-        <v>91</v>
-      </c>
-      <c r="D77" s="16">
-        <v>224.76</v>
-      </c>
-      <c r="E77" s="16">
-        <v>6540.09</v>
-      </c>
-      <c r="F77" s="16">
-        <v>52.54</v>
-      </c>
-      <c r="G77" s="29">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H77" s="15">
-        <v>13.87</v>
-      </c>
-      <c r="I77" s="14">
+      <c r="L81" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A82" s="12">
+        <f t="shared" ref="A82:A85" si="12">D82-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82" s="12">
+        <v>20</v>
+      </c>
+      <c r="D82" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E82" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F82" s="12">
+        <v>49.5</v>
+      </c>
+      <c r="G82" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="H82" s="13">
+        <v>1.97</v>
+      </c>
+      <c r="I82" s="14">
         <v>3750</v>
       </c>
-      <c r="J77" s="14">
+      <c r="J82" s="14">
         <v>4000</v>
       </c>
-      <c r="K77" s="14">
-        <f t="shared" si="10"/>
+      <c r="K82" s="14">
+        <f>I82+J82</f>
         <v>7750</v>
       </c>
-      <c r="L77" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="19">
-        <f>D78-273.15</f>
-        <v>-62.799999999999983</v>
-      </c>
-      <c r="B78" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" s="19"/>
-      <c r="D78" s="19">
-        <v>210.35</v>
-      </c>
-      <c r="E78" s="19">
-        <v>5675</v>
-      </c>
-      <c r="F78" s="20">
-        <v>54.34</v>
-      </c>
-      <c r="G78" s="20">
-        <v>7.85</v>
-      </c>
-      <c r="H78" s="20">
-        <v>12.24</v>
-      </c>
-      <c r="I78" s="21">
-        <v>3750</v>
-      </c>
-      <c r="J78" s="21">
-        <v>4000</v>
-      </c>
-      <c r="K78" s="21">
-        <f t="shared" si="10"/>
-        <v>7750</v>
-      </c>
-      <c r="L78" s="22">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G79" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H80" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J80" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K80" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L80" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="81" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="4">
-        <f>D81-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E81" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F81" s="4">
-        <v>46.88</v>
-      </c>
-      <c r="G81" s="5">
-        <v>0.02</v>
-      </c>
-      <c r="H81" s="5">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I81" s="6">
-        <v>4250</v>
-      </c>
-      <c r="J81" s="6">
-        <v>4500</v>
-      </c>
-      <c r="K81" s="6">
-        <f>I81+J81</f>
-        <v>8750</v>
-      </c>
-      <c r="L81" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A82" s="7">
-        <f>D82-273.15</f>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C82" s="8">
-        <v>10</v>
-      </c>
-      <c r="D82" s="9">
-        <v>297</v>
-      </c>
-      <c r="E82" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F82" s="8">
-        <v>48.32</v>
-      </c>
-      <c r="G82" s="8">
-        <v>0.03</v>
-      </c>
-      <c r="H82" s="10">
-        <v>1.03</v>
-      </c>
-      <c r="I82" s="11">
-        <v>4250</v>
-      </c>
-      <c r="J82" s="11">
-        <v>4500</v>
-      </c>
-      <c r="K82" s="11">
-        <f>I82+J82</f>
-        <v>8750</v>
-      </c>
-      <c r="L82" s="10">
+      <c r="L82" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="12">
-        <f t="shared" ref="A83:A86" si="11">D83-273.15</f>
-        <v>14.410000000000025</v>
+        <f t="shared" si="12"/>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C83" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D83" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E83" s="12">
-        <v>7971.48</v>
+        <v>7719.4</v>
       </c>
       <c r="F83" s="12">
-        <v>49.58</v>
-      </c>
-      <c r="G83" s="13">
-        <v>0.02</v>
+        <v>51.36</v>
+      </c>
+      <c r="G83" s="28">
+        <v>0.01</v>
       </c>
       <c r="H83" s="13">
-        <v>1.69</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="I83" s="14">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="J83" s="14">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="K83" s="14">
-        <f>I83+J83</f>
-        <v>8750</v>
+        <f t="shared" ref="K83:K90" si="13">I83+J83</f>
+        <v>7750</v>
       </c>
       <c r="L83" s="13">
         <v>0.31</v>
@@ -5935,39 +5969,39 @@
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="12">
-        <f t="shared" si="11"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="12"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C84" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D84" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E84" s="12">
-        <v>7719.4</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E84" s="13">
+        <v>7492.43</v>
       </c>
       <c r="F84" s="12">
-        <v>51.43</v>
-      </c>
-      <c r="G84" s="1">
-        <v>3.0000000000000001E-3</v>
+        <v>52.23</v>
+      </c>
+      <c r="G84" s="28">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H84" s="13">
-        <v>2.17</v>
+        <v>2.19</v>
       </c>
       <c r="I84" s="14">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="J84" s="14">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="K84" s="14">
-        <f t="shared" ref="K84:K91" si="12">I84+J84</f>
-        <v>8750</v>
+        <f t="shared" si="13"/>
+        <v>7750</v>
       </c>
       <c r="L84" s="13">
         <v>0.31</v>
@@ -5975,39 +6009,39 @@
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="12">
-        <f t="shared" si="11"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="12"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C85" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D85" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E85" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E85" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F85" s="12">
-        <v>52.31</v>
+        <v>53.29</v>
       </c>
       <c r="G85" s="28">
-        <v>1E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H85" s="13">
-        <v>1.92</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="I85" s="14">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="J85" s="14">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="K85" s="14">
-        <f t="shared" si="12"/>
-        <v>8750</v>
+        <f t="shared" si="13"/>
+        <v>7750</v>
       </c>
       <c r="L85" s="13">
         <v>0.31</v>
@@ -6015,39 +6049,39 @@
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="12">
-        <f t="shared" si="11"/>
-        <v>-13.689999999999998</v>
+        <f>D86-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C86" s="12">
-        <v>50</v>
-      </c>
-      <c r="D86" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D86" s="13">
+        <v>251.62</v>
       </c>
       <c r="E86" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F86" s="12">
-        <v>53.37</v>
-      </c>
-      <c r="G86" s="32">
-        <v>8.0000000000000004E-4</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F86" s="13">
+        <v>53.88</v>
+      </c>
+      <c r="G86" s="28">
+        <v>2E-3</v>
       </c>
       <c r="H86" s="13">
-        <v>1.8</v>
+        <v>2.0499999999999998</v>
       </c>
       <c r="I86" s="14">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="J86" s="14">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="K86" s="14">
-        <f t="shared" si="12"/>
-        <v>8750</v>
+        <f t="shared" si="13"/>
+        <v>7750</v>
       </c>
       <c r="L86" s="13">
         <v>0.31</v>
@@ -6056,38 +6090,38 @@
     <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="12">
         <f>D87-273.15</f>
-        <v>-21.529999999999973</v>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C87" s="12">
-        <v>60</v>
-      </c>
-      <c r="D87" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D87" s="12">
+        <v>244.1</v>
       </c>
       <c r="E87" s="12">
-        <v>7024.97</v>
-      </c>
-      <c r="F87" s="13">
-        <v>53.91</v>
-      </c>
-      <c r="G87" s="30">
-        <v>5.9999999999999995E-4</v>
+        <v>6908.85</v>
+      </c>
+      <c r="F87" s="12">
+        <v>53.77</v>
+      </c>
+      <c r="G87" s="28">
+        <v>2E-3</v>
       </c>
       <c r="H87" s="13">
-        <v>1.93</v>
+        <v>4.16</v>
       </c>
       <c r="I87" s="14">
-        <v>4250</v>
+        <v>3750</v>
       </c>
       <c r="J87" s="14">
-        <v>4500</v>
+        <v>4000</v>
       </c>
       <c r="K87" s="14">
-        <f t="shared" si="12"/>
-        <v>8750</v>
+        <f t="shared" si="13"/>
+        <v>7750</v>
       </c>
       <c r="L87" s="13">
         <v>0.31</v>
@@ -6096,311 +6130,318 @@
     <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="12">
         <f>D88-273.15</f>
-        <v>-29.049999999999983</v>
+        <v>-36.95999999999998</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C88" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D88" s="12">
-        <v>244.1</v>
+        <v>236.19</v>
       </c>
       <c r="E88" s="12">
-        <v>6908.85</v>
+        <v>6845.67</v>
       </c>
       <c r="F88" s="12">
-        <v>53.77</v>
-      </c>
-      <c r="G88" s="30">
-        <v>6.9999999999999999E-4</v>
+        <v>53.06</v>
+      </c>
+      <c r="G88" s="28">
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H88" s="13">
-        <v>4.1500000000000004</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="I88" s="14">
+        <v>3750</v>
+      </c>
+      <c r="J88" s="14">
+        <v>4000</v>
+      </c>
+      <c r="K88" s="14">
+        <f t="shared" si="13"/>
+        <v>7750</v>
+      </c>
+      <c r="L88" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="15">
+        <f>D89-273.15</f>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B89" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C89" s="16">
+        <v>91</v>
+      </c>
+      <c r="D89" s="16">
+        <v>224.76</v>
+      </c>
+      <c r="E89" s="16">
+        <v>6540.09</v>
+      </c>
+      <c r="F89" s="16">
+        <v>52.54</v>
+      </c>
+      <c r="G89" s="29">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H89" s="15">
+        <v>13.87</v>
+      </c>
+      <c r="I89" s="14">
+        <v>3750</v>
+      </c>
+      <c r="J89" s="14">
+        <v>4000</v>
+      </c>
+      <c r="K89" s="14">
+        <f t="shared" si="13"/>
+        <v>7750</v>
+      </c>
+      <c r="L89" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="19">
+        <f>D90-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E90" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F90" s="20">
+        <v>54.34</v>
+      </c>
+      <c r="G90" s="20">
+        <v>7.85</v>
+      </c>
+      <c r="H90" s="20">
+        <v>12.24</v>
+      </c>
+      <c r="I90" s="21">
+        <v>3750</v>
+      </c>
+      <c r="J90" s="21">
+        <v>4000</v>
+      </c>
+      <c r="K90" s="21">
+        <f t="shared" si="13"/>
+        <v>7750</v>
+      </c>
+      <c r="L90" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G92" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J92" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K92" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L92" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="4">
+        <f>D93-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E93" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F93" s="4">
+        <v>46.88</v>
+      </c>
+      <c r="G93" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="H93" s="5">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I93" s="6">
         <v>4250</v>
       </c>
-      <c r="J88" s="14">
+      <c r="J93" s="6">
         <v>4500</v>
       </c>
-      <c r="K88" s="14">
-        <f t="shared" si="12"/>
+      <c r="K93" s="6">
+        <f>I93+J93</f>
         <v>8750</v>
       </c>
-      <c r="L88" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A89" s="12">
-        <f>D89-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C89" s="12">
-        <v>80</v>
-      </c>
-      <c r="D89" s="12">
-        <v>236.19</v>
-      </c>
-      <c r="E89" s="12">
-        <v>6845.67</v>
-      </c>
-      <c r="F89" s="12">
-        <v>53.05</v>
-      </c>
-      <c r="G89" s="32">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H89" s="13">
-        <v>8.4600000000000009</v>
-      </c>
-      <c r="I89" s="14">
+      <c r="L93" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A94" s="7">
+        <f>D94-273.15</f>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94" s="8">
+        <v>10</v>
+      </c>
+      <c r="D94" s="9">
+        <v>297</v>
+      </c>
+      <c r="E94" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F94" s="8">
+        <v>48.32</v>
+      </c>
+      <c r="G94" s="8">
+        <v>0.03</v>
+      </c>
+      <c r="H94" s="10">
+        <v>1.03</v>
+      </c>
+      <c r="I94" s="11">
         <v>4250</v>
       </c>
-      <c r="J89" s="14">
+      <c r="J94" s="11">
         <v>4500</v>
       </c>
-      <c r="K89" s="14">
-        <f t="shared" si="12"/>
+      <c r="K94" s="11">
+        <f>I94+J94</f>
         <v>8750</v>
       </c>
-      <c r="L89" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="90" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="15">
-        <f>D90-273.15</f>
-        <v>-48.389999999999986</v>
-      </c>
-      <c r="B90" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C90" s="16">
-        <v>91</v>
-      </c>
-      <c r="D90" s="16">
-        <v>224.76</v>
-      </c>
-      <c r="E90" s="16">
-        <v>6540.09</v>
-      </c>
-      <c r="F90" s="16">
-        <v>52.54</v>
-      </c>
-      <c r="G90" s="29">
-        <v>1E-3</v>
-      </c>
-      <c r="H90" s="15">
-        <v>13.86</v>
-      </c>
-      <c r="I90" s="14">
+      <c r="L94" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A95" s="12">
+        <f t="shared" ref="A95:A98" si="14">D95-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B95" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95" s="12">
+        <v>20</v>
+      </c>
+      <c r="D95" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E95" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F95" s="12">
+        <v>49.58</v>
+      </c>
+      <c r="G95" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="H95" s="13">
+        <v>1.69</v>
+      </c>
+      <c r="I95" s="14">
         <v>4250</v>
       </c>
-      <c r="J90" s="14">
+      <c r="J95" s="14">
         <v>4500</v>
       </c>
-      <c r="K90" s="14">
-        <f t="shared" si="12"/>
+      <c r="K95" s="14">
+        <f>I95+J95</f>
         <v>8750</v>
       </c>
-      <c r="L90" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="19">
-        <f>D91-273.15</f>
-        <v>-62.799999999999983</v>
-      </c>
-      <c r="B91" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C91" s="19"/>
-      <c r="D91" s="19">
-        <v>210.35</v>
-      </c>
-      <c r="E91" s="19">
-        <v>5675</v>
-      </c>
-      <c r="F91" s="20">
-        <v>54.34</v>
-      </c>
-      <c r="G91" s="20">
-        <v>1.79</v>
-      </c>
-      <c r="H91" s="20">
-        <v>12.24</v>
-      </c>
-      <c r="I91" s="21">
-        <v>4250</v>
-      </c>
-      <c r="J91" s="21">
-        <v>4500</v>
-      </c>
-      <c r="K91" s="21">
-        <f t="shared" si="12"/>
-        <v>8750</v>
-      </c>
-      <c r="L91" s="22">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="92" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="93" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B93" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E93" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H93" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I93" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J93" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K93" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="94" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="4">
-        <f>D94-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B94" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E94" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F94" s="4">
-        <v>46.94</v>
-      </c>
-      <c r="G94" s="25">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H94" s="5">
-        <v>1.87</v>
-      </c>
-      <c r="I94" s="6">
-        <v>4750</v>
-      </c>
-      <c r="J94" s="6">
-        <v>5000</v>
-      </c>
-      <c r="K94" s="6">
-        <f>I94+J94</f>
-        <v>9750</v>
-      </c>
-      <c r="L94" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A95" s="7">
-        <f>D95-273.15</f>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B95" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C95" s="8">
-        <v>10</v>
-      </c>
-      <c r="D95" s="9">
-        <v>297</v>
-      </c>
-      <c r="E95" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F95" s="8">
-        <v>48.37</v>
-      </c>
-      <c r="G95" s="31">
-        <v>0.01</v>
-      </c>
-      <c r="H95" s="10">
-        <v>0.83</v>
-      </c>
-      <c r="I95" s="11">
-        <v>4750</v>
-      </c>
-      <c r="J95" s="11">
-        <v>5000</v>
-      </c>
-      <c r="K95" s="11">
-        <f>I95+J95</f>
-        <v>9750</v>
-      </c>
-      <c r="L95" s="10">
+      <c r="L95" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="12">
-        <f t="shared" ref="A96:A99" si="13">D96-273.15</f>
-        <v>14.410000000000025</v>
+        <f t="shared" si="14"/>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C96" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D96" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E96" s="12">
-        <v>7971.48</v>
+        <v>7719.4</v>
       </c>
       <c r="F96" s="12">
-        <v>49.64</v>
-      </c>
-      <c r="G96" s="28">
-        <v>7.0000000000000001E-3</v>
+        <v>51.43</v>
+      </c>
+      <c r="G96" s="1">
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="H96" s="13">
-        <v>1.45</v>
+        <v>2.17</v>
       </c>
       <c r="I96" s="14">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="J96" s="14">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K96" s="14">
-        <f>I96+J96</f>
-        <v>9750</v>
+        <f t="shared" ref="K96:K103" si="15">I96+J96</f>
+        <v>8750</v>
       </c>
       <c r="L96" s="13">
         <v>0.31</v>
@@ -6408,39 +6449,39 @@
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="12">
-        <f t="shared" si="13"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="14"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C97" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D97" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E97" s="12">
-        <v>7719.4</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E97" s="13">
+        <v>7492.43</v>
       </c>
       <c r="F97" s="12">
-        <v>51.49</v>
-      </c>
-      <c r="G97" s="30">
-        <v>8.9999999999999998E-4</v>
+        <v>52.31</v>
+      </c>
+      <c r="G97" s="28">
+        <v>1E-3</v>
       </c>
       <c r="H97" s="13">
-        <v>1.96</v>
+        <v>1.92</v>
       </c>
       <c r="I97" s="14">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="J97" s="14">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K97" s="14">
-        <f t="shared" ref="K97:K104" si="14">I97+J97</f>
-        <v>9750</v>
+        <f t="shared" si="15"/>
+        <v>8750</v>
       </c>
       <c r="L97" s="13">
         <v>0.31</v>
@@ -6448,39 +6489,39 @@
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="12">
-        <f t="shared" si="13"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="14"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C98" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D98" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E98" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E98" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F98" s="12">
-        <v>52.37</v>
-      </c>
-      <c r="G98" s="30">
-        <v>5.9999999999999995E-4</v>
+        <v>53.37</v>
+      </c>
+      <c r="G98" s="32">
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="H98" s="13">
-        <v>1.71</v>
+        <v>1.8</v>
       </c>
       <c r="I98" s="14">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="J98" s="14">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K98" s="14">
-        <f t="shared" si="14"/>
-        <v>9750</v>
+        <f t="shared" si="15"/>
+        <v>8750</v>
       </c>
       <c r="L98" s="13">
         <v>0.31</v>
@@ -6488,39 +6529,39 @@
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="12">
-        <f t="shared" si="13"/>
-        <v>-13.689999999999998</v>
+        <f>D99-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C99" s="12">
-        <v>50</v>
-      </c>
-      <c r="D99" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D99" s="13">
+        <v>251.62</v>
       </c>
       <c r="E99" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F99" s="12">
-        <v>53.43</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F99" s="13">
+        <v>53.91</v>
       </c>
       <c r="G99" s="30">
-        <v>2.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H99" s="13">
-        <v>1.64</v>
+        <v>1.93</v>
       </c>
       <c r="I99" s="14">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="J99" s="14">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K99" s="14">
-        <f t="shared" si="14"/>
-        <v>9750</v>
+        <f t="shared" si="15"/>
+        <v>8750</v>
       </c>
       <c r="L99" s="13">
         <v>0.31</v>
@@ -6529,38 +6570,38 @@
     <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="12">
         <f>D100-273.15</f>
-        <v>-21.529999999999973</v>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C100" s="12">
-        <v>60</v>
-      </c>
-      <c r="D100" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D100" s="12">
+        <v>244.1</v>
       </c>
       <c r="E100" s="12">
-        <v>7024.97</v>
-      </c>
-      <c r="F100" s="13">
-        <v>53.92</v>
+        <v>6908.85</v>
+      </c>
+      <c r="F100" s="12">
+        <v>53.77</v>
       </c>
       <c r="G100" s="30">
-        <v>1E-4</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="H100" s="13">
-        <v>1.87</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I100" s="14">
-        <v>4750</v>
+        <v>4250</v>
       </c>
       <c r="J100" s="14">
-        <v>5000</v>
+        <v>4500</v>
       </c>
       <c r="K100" s="14">
-        <f t="shared" si="14"/>
-        <v>9750</v>
+        <f t="shared" si="15"/>
+        <v>8750</v>
       </c>
       <c r="L100" s="13">
         <v>0.31</v>
@@ -6569,311 +6610,311 @@
     <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="12">
         <f>D101-273.15</f>
-        <v>-29.049999999999983</v>
+        <v>-36.95999999999998</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C101" s="12">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D101" s="12">
-        <v>244.1</v>
+        <v>236.19</v>
       </c>
       <c r="E101" s="12">
-        <v>6908.85</v>
+        <v>6845.67</v>
       </c>
       <c r="F101" s="12">
-        <v>53.77</v>
-      </c>
-      <c r="G101" s="30">
-        <v>2.0000000000000001E-4</v>
+        <v>53.05</v>
+      </c>
+      <c r="G101" s="32">
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H101" s="13">
-        <v>4.1500000000000004</v>
+        <v>8.4600000000000009</v>
       </c>
       <c r="I101" s="14">
+        <v>4250</v>
+      </c>
+      <c r="J101" s="14">
+        <v>4500</v>
+      </c>
+      <c r="K101" s="14">
+        <f t="shared" si="15"/>
+        <v>8750</v>
+      </c>
+      <c r="L101" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="15">
+        <f>D102-273.15</f>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B102" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" s="16">
+        <v>91</v>
+      </c>
+      <c r="D102" s="16">
+        <v>224.76</v>
+      </c>
+      <c r="E102" s="16">
+        <v>6540.09</v>
+      </c>
+      <c r="F102" s="16">
+        <v>52.54</v>
+      </c>
+      <c r="G102" s="29">
+        <v>1E-3</v>
+      </c>
+      <c r="H102" s="15">
+        <v>13.86</v>
+      </c>
+      <c r="I102" s="14">
+        <v>4250</v>
+      </c>
+      <c r="J102" s="14">
+        <v>4500</v>
+      </c>
+      <c r="K102" s="14">
+        <f t="shared" si="15"/>
+        <v>8750</v>
+      </c>
+      <c r="L102" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="19">
+        <f>D103-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B103" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" s="19"/>
+      <c r="D103" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E103" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F103" s="20">
+        <v>54.34</v>
+      </c>
+      <c r="G103" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="H103" s="20">
+        <v>12.24</v>
+      </c>
+      <c r="I103" s="21">
+        <v>4250</v>
+      </c>
+      <c r="J103" s="21">
+        <v>4500</v>
+      </c>
+      <c r="K103" s="21">
+        <f t="shared" si="15"/>
+        <v>8750</v>
+      </c>
+      <c r="L103" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="105" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I105" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J105" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K105" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="4">
+        <f>D106-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E106" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F106" s="4">
+        <v>46.94</v>
+      </c>
+      <c r="G106" s="25">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="H106" s="5">
+        <v>1.87</v>
+      </c>
+      <c r="I106" s="6">
         <v>4750</v>
       </c>
-      <c r="J101" s="14">
+      <c r="J106" s="6">
         <v>5000</v>
       </c>
-      <c r="K101" s="14">
-        <f t="shared" si="14"/>
+      <c r="K106" s="6">
+        <f>I106+J106</f>
         <v>9750</v>
       </c>
-      <c r="L101" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A102" s="33">
-        <f>D102-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B102" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C102" s="33">
-        <v>80</v>
-      </c>
-      <c r="D102" s="33">
-        <v>236.19</v>
-      </c>
-      <c r="E102" s="33">
-        <v>6845.67</v>
-      </c>
-      <c r="F102" s="33">
-        <v>53.05</v>
-      </c>
-      <c r="G102" s="34">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H102" s="35">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="I102" s="36">
+      <c r="L106" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A107" s="7">
+        <f>D107-273.15</f>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B107" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C107" s="8">
+        <v>10</v>
+      </c>
+      <c r="D107" s="9">
+        <v>297</v>
+      </c>
+      <c r="E107" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F107" s="8">
+        <v>48.37</v>
+      </c>
+      <c r="G107" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="H107" s="10">
+        <v>0.83</v>
+      </c>
+      <c r="I107" s="11">
         <v>4750</v>
       </c>
-      <c r="J102" s="36">
+      <c r="J107" s="11">
         <v>5000</v>
       </c>
-      <c r="K102" s="36">
-        <f t="shared" si="14"/>
+      <c r="K107" s="11">
+        <f>I107+J107</f>
         <v>9750</v>
       </c>
-      <c r="L102" s="35">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="37">
-        <f>D103-273.15</f>
-        <v>-48.389999999999986</v>
-      </c>
-      <c r="B103" s="38" t="s">
-        <v>28</v>
-      </c>
-      <c r="C103" s="38">
-        <v>91</v>
-      </c>
-      <c r="D103" s="38">
-        <v>224.76</v>
-      </c>
-      <c r="E103" s="38">
-        <v>6540.09</v>
-      </c>
-      <c r="F103" s="38">
-        <v>52.54</v>
-      </c>
-      <c r="G103" s="39">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="H103" s="37">
-        <v>13.77</v>
-      </c>
-      <c r="I103" s="36">
+      <c r="L107" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A108" s="12">
+        <f t="shared" ref="A108:A111" si="16">D108-273.15</f>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C108" s="12">
+        <v>20</v>
+      </c>
+      <c r="D108" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E108" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F108" s="12">
+        <v>49.64</v>
+      </c>
+      <c r="G108" s="28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H108" s="13">
+        <v>1.45</v>
+      </c>
+      <c r="I108" s="14">
         <v>4750</v>
       </c>
-      <c r="J103" s="36">
+      <c r="J108" s="14">
         <v>5000</v>
       </c>
-      <c r="K103" s="36">
-        <f t="shared" si="14"/>
+      <c r="K108" s="14">
+        <f>I108+J108</f>
         <v>9750</v>
       </c>
-      <c r="L103" s="35">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="19">
-        <f>D104-273.15</f>
-        <v>-62.799999999999983</v>
-      </c>
-      <c r="B104" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="C104" s="19"/>
-      <c r="D104" s="19">
-        <v>210.35</v>
-      </c>
-      <c r="E104" s="19">
-        <v>5675</v>
-      </c>
-      <c r="F104" s="20">
-        <v>54.34</v>
-      </c>
-      <c r="G104" s="20">
-        <v>4.45</v>
-      </c>
-      <c r="H104" s="20">
-        <v>12.24</v>
-      </c>
-      <c r="I104" s="21">
-        <v>4750</v>
-      </c>
-      <c r="J104" s="21">
-        <v>5000</v>
-      </c>
-      <c r="K104" s="21">
-        <f t="shared" si="14"/>
-        <v>9750</v>
-      </c>
-      <c r="L104" s="22">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="106" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="4">
-        <f t="shared" ref="A107:A117" si="15">D107-273.15</f>
-        <v>35</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4">
-        <v>308.14999999999998</v>
-      </c>
-      <c r="E107" s="4">
-        <v>8500</v>
-      </c>
-      <c r="F107" s="4">
-        <v>46.98</v>
-      </c>
-      <c r="G107" s="25">
-        <v>2E-3</v>
-      </c>
-      <c r="H107" s="5">
-        <v>1.73</v>
-      </c>
-      <c r="I107" s="6">
-        <v>5250</v>
-      </c>
-      <c r="J107" s="6">
-        <v>5500</v>
-      </c>
-      <c r="K107" s="6">
-        <f>I107+J107</f>
-        <v>10750</v>
-      </c>
-      <c r="L107" s="5">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A108" s="7">
-        <f t="shared" si="15"/>
-        <v>23.850000000000023</v>
-      </c>
-      <c r="B108" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C108" s="8">
-        <v>10</v>
-      </c>
-      <c r="D108" s="9">
-        <v>297</v>
-      </c>
-      <c r="E108" s="8">
-        <v>7953.13</v>
-      </c>
-      <c r="F108" s="8">
-        <v>48.42</v>
-      </c>
-      <c r="G108" s="31">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="H108" s="10">
-        <v>0.67</v>
-      </c>
-      <c r="I108" s="11">
-        <v>5250</v>
-      </c>
-      <c r="J108" s="11">
-        <v>5500</v>
-      </c>
-      <c r="K108" s="11">
-        <f>I108+J108</f>
-        <v>10750</v>
-      </c>
-      <c r="L108" s="10">
+      <c r="L108" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" s="12">
-        <f t="shared" si="15"/>
-        <v>14.410000000000025</v>
+        <f t="shared" si="16"/>
+        <v>1.9900000000000091</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C109" s="12">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D109" s="12">
-        <v>287.56</v>
+        <v>275.14</v>
       </c>
       <c r="E109" s="12">
-        <v>7971.48</v>
+        <v>7719.4</v>
       </c>
       <c r="F109" s="12">
-        <v>49.69</v>
+        <v>51.49</v>
       </c>
       <c r="G109" s="30">
-        <v>2E-3</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="H109" s="13">
-        <v>1.28</v>
+        <v>1.96</v>
       </c>
       <c r="I109" s="14">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="J109" s="14">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="K109" s="14">
-        <f>I109+J109</f>
-        <v>10750</v>
+        <f t="shared" ref="K109:K116" si="17">I109+J109</f>
+        <v>9750</v>
       </c>
       <c r="L109" s="13">
         <v>0.31</v>
@@ -6881,39 +6922,39 @@
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" s="12">
-        <f t="shared" si="15"/>
-        <v>1.9900000000000091</v>
+        <f t="shared" si="16"/>
+        <v>-5.0499999999999545</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C110" s="12">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D110" s="12">
-        <v>275.14</v>
-      </c>
-      <c r="E110" s="12">
-        <v>7719.4</v>
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E110" s="13">
+        <v>7492.43</v>
       </c>
       <c r="F110" s="12">
-        <v>51.54</v>
+        <v>52.37</v>
       </c>
       <c r="G110" s="30">
-        <v>2.0000000000000001E-4</v>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="H110" s="13">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="I110" s="14">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="J110" s="14">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="K110" s="14">
-        <f t="shared" ref="K110:K117" si="16">I110+J110</f>
-        <v>10750</v>
+        <f t="shared" si="17"/>
+        <v>9750</v>
       </c>
       <c r="L110" s="13">
         <v>0.31</v>
@@ -6921,39 +6962,39 @@
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" s="12">
-        <f t="shared" si="15"/>
-        <v>-5.0499999999999545</v>
+        <f t="shared" si="16"/>
+        <v>-13.689999999999998</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C111" s="12">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D111" s="12">
-        <v>268.10000000000002</v>
-      </c>
-      <c r="E111" s="13">
-        <v>7492.43</v>
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E111" s="12">
+        <v>7237.87</v>
       </c>
       <c r="F111" s="12">
-        <v>52.41</v>
+        <v>53.43</v>
       </c>
       <c r="G111" s="30">
         <v>2.0000000000000001E-4</v>
       </c>
       <c r="H111" s="13">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="I111" s="14">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="J111" s="14">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="K111" s="14">
-        <f t="shared" si="16"/>
-        <v>10750</v>
+        <f t="shared" si="17"/>
+        <v>9750</v>
       </c>
       <c r="L111" s="13">
         <v>0.31</v>
@@ -6961,39 +7002,39 @@
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" s="12">
-        <f t="shared" si="15"/>
-        <v>-13.689999999999998</v>
+        <f>D112-273.15</f>
+        <v>-21.529999999999973</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C112" s="12">
-        <v>50</v>
-      </c>
-      <c r="D112" s="12">
-        <v>259.45999999999998</v>
+        <v>60</v>
+      </c>
+      <c r="D112" s="13">
+        <v>251.62</v>
       </c>
       <c r="E112" s="12">
-        <v>7237.87</v>
-      </c>
-      <c r="F112" s="12">
-        <v>53.47</v>
+        <v>7024.97</v>
+      </c>
+      <c r="F112" s="13">
+        <v>53.92</v>
       </c>
       <c r="G112" s="30">
-        <v>2.0000000000000001E-4</v>
+        <v>1E-4</v>
       </c>
       <c r="H112" s="13">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="I112" s="14">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="J112" s="14">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="K112" s="14">
-        <f t="shared" si="16"/>
-        <v>10750</v>
+        <f t="shared" si="17"/>
+        <v>9750</v>
       </c>
       <c r="L112" s="13">
         <v>0.31</v>
@@ -7001,109 +7042,109 @@
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" s="12">
-        <f t="shared" si="15"/>
-        <v>-21.529999999999973</v>
+        <f>D113-273.15</f>
+        <v>-29.049999999999983</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C113" s="12">
-        <v>60</v>
-      </c>
-      <c r="D113" s="13">
-        <v>251.62</v>
+        <v>70</v>
+      </c>
+      <c r="D113" s="12">
+        <v>244.1</v>
       </c>
       <c r="E113" s="12">
-        <v>7024.97</v>
-      </c>
-      <c r="F113" s="13">
-        <v>53.96</v>
+        <v>6908.85</v>
+      </c>
+      <c r="F113" s="12">
+        <v>53.77</v>
       </c>
       <c r="G113" s="30">
-        <v>1E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="H113" s="13">
-        <v>1.87</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="I113" s="14">
-        <v>5250</v>
+        <v>4750</v>
       </c>
       <c r="J113" s="14">
-        <v>5500</v>
+        <v>5000</v>
       </c>
       <c r="K113" s="14">
-        <f t="shared" si="16"/>
-        <v>10750</v>
+        <f t="shared" si="17"/>
+        <v>9750</v>
       </c>
       <c r="L113" s="13">
         <v>0.31</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A114" s="12">
-        <f t="shared" si="15"/>
-        <v>-29.049999999999983</v>
-      </c>
-      <c r="B114" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C114" s="12">
-        <v>70</v>
-      </c>
-      <c r="D114" s="12">
-        <v>244.1</v>
-      </c>
-      <c r="E114" s="12">
-        <v>6908.85</v>
-      </c>
-      <c r="F114" s="12">
-        <v>53.77</v>
-      </c>
-      <c r="G114" s="30">
+      <c r="A114" s="33">
+        <f>D114-273.15</f>
+        <v>-36.95999999999998</v>
+      </c>
+      <c r="B114" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C114" s="33">
+        <v>80</v>
+      </c>
+      <c r="D114" s="33">
+        <v>236.19</v>
+      </c>
+      <c r="E114" s="33">
+        <v>6845.67</v>
+      </c>
+      <c r="F114" s="33">
+        <v>53.05</v>
+      </c>
+      <c r="G114" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H114" s="35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I114" s="36">
+        <v>4750</v>
+      </c>
+      <c r="J114" s="36">
+        <v>5000</v>
+      </c>
+      <c r="K114" s="36">
+        <f t="shared" si="17"/>
+        <v>9750</v>
+      </c>
+      <c r="L114" s="35">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="37">
+        <f>D115-273.15</f>
+        <v>-48.389999999999986</v>
+      </c>
+      <c r="B115" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115" s="38">
+        <v>91</v>
+      </c>
+      <c r="D115" s="38">
+        <v>224.76</v>
+      </c>
+      <c r="E115" s="38">
+        <v>6540.09</v>
+      </c>
+      <c r="F115" s="38">
+        <v>52.54</v>
+      </c>
+      <c r="G115" s="39">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H114" s="13">
-        <v>4.1500000000000004</v>
-      </c>
-      <c r="I114" s="14">
-        <v>5250</v>
-      </c>
-      <c r="J114" s="14">
-        <v>5500</v>
-      </c>
-      <c r="K114" s="14">
-        <f t="shared" si="16"/>
-        <v>10750</v>
-      </c>
-      <c r="L114" s="13">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A115" s="33">
-        <f>D115-273.15</f>
-        <v>-36.95999999999998</v>
-      </c>
-      <c r="B115" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="C115" s="33">
-        <v>80</v>
-      </c>
-      <c r="D115" s="33">
-        <v>236.19</v>
-      </c>
-      <c r="E115" s="33">
-        <v>6845.67</v>
-      </c>
-      <c r="F115" s="33">
-        <v>53.05</v>
-      </c>
-      <c r="G115" s="34">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H115" s="35">
-        <v>8.8000000000000007</v>
+      <c r="H115" s="37">
+        <v>13.77</v>
       </c>
       <c r="I115" s="36">
         <v>4750</v>
@@ -7112,7 +7153,7 @@
         <v>5000</v>
       </c>
       <c r="K115" s="36">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>9750</v>
       </c>
       <c r="L115" s="35">
@@ -7120,80 +7161,513 @@
       </c>
     </row>
     <row r="116" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="37">
+      <c r="A116" s="19">
         <f>D116-273.15</f>
+        <v>-62.799999999999983</v>
+      </c>
+      <c r="B116" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C116" s="19"/>
+      <c r="D116" s="19">
+        <v>210.35</v>
+      </c>
+      <c r="E116" s="19">
+        <v>5675</v>
+      </c>
+      <c r="F116" s="20">
+        <v>54.34</v>
+      </c>
+      <c r="G116" s="20">
+        <v>4.45</v>
+      </c>
+      <c r="H116" s="20">
+        <v>12.24</v>
+      </c>
+      <c r="I116" s="21">
+        <v>4750</v>
+      </c>
+      <c r="J116" s="21">
+        <v>5000</v>
+      </c>
+      <c r="K116" s="21">
+        <f t="shared" si="17"/>
+        <v>9750</v>
+      </c>
+      <c r="L116" s="22">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="118" spans="1:12" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G118" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H118" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J118" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K118" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L118" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="4">
+        <f t="shared" ref="A119:A129" si="18">D119-273.15</f>
+        <v>35</v>
+      </c>
+      <c r="B119" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4">
+        <v>308.14999999999998</v>
+      </c>
+      <c r="E119" s="4">
+        <v>8500</v>
+      </c>
+      <c r="F119" s="4">
+        <v>46.98</v>
+      </c>
+      <c r="G119" s="25">
+        <v>2E-3</v>
+      </c>
+      <c r="H119" s="5">
+        <v>1.73</v>
+      </c>
+      <c r="I119" s="6">
+        <v>5250</v>
+      </c>
+      <c r="J119" s="6">
+        <v>5500</v>
+      </c>
+      <c r="K119" s="6">
+        <f>I119+J119</f>
+        <v>10750</v>
+      </c>
+      <c r="L119" s="5">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A120" s="7">
+        <f t="shared" si="18"/>
+        <v>23.850000000000023</v>
+      </c>
+      <c r="B120" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C120" s="8">
+        <v>10</v>
+      </c>
+      <c r="D120" s="9">
+        <v>297</v>
+      </c>
+      <c r="E120" s="8">
+        <v>7953.13</v>
+      </c>
+      <c r="F120" s="8">
+        <v>48.42</v>
+      </c>
+      <c r="G120" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H120" s="10">
+        <v>0.67</v>
+      </c>
+      <c r="I120" s="11">
+        <v>5250</v>
+      </c>
+      <c r="J120" s="11">
+        <v>5500</v>
+      </c>
+      <c r="K120" s="11">
+        <f>I120+J120</f>
+        <v>10750</v>
+      </c>
+      <c r="L120" s="10">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A121" s="12">
+        <f t="shared" si="18"/>
+        <v>14.410000000000025</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121" s="12">
+        <v>20</v>
+      </c>
+      <c r="D121" s="12">
+        <v>287.56</v>
+      </c>
+      <c r="E121" s="12">
+        <v>7971.48</v>
+      </c>
+      <c r="F121" s="12">
+        <v>49.69</v>
+      </c>
+      <c r="G121" s="30">
+        <v>2E-3</v>
+      </c>
+      <c r="H121" s="13">
+        <v>1.28</v>
+      </c>
+      <c r="I121" s="14">
+        <v>5250</v>
+      </c>
+      <c r="J121" s="14">
+        <v>5500</v>
+      </c>
+      <c r="K121" s="14">
+        <f>I121+J121</f>
+        <v>10750</v>
+      </c>
+      <c r="L121" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A122" s="12">
+        <f t="shared" si="18"/>
+        <v>1.9900000000000091</v>
+      </c>
+      <c r="B122" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C122" s="12">
+        <v>32</v>
+      </c>
+      <c r="D122" s="12">
+        <v>275.14</v>
+      </c>
+      <c r="E122" s="12">
+        <v>7719.4</v>
+      </c>
+      <c r="F122" s="12">
+        <v>51.54</v>
+      </c>
+      <c r="G122" s="30">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H122" s="13">
+        <v>1.79</v>
+      </c>
+      <c r="I122" s="14">
+        <v>5250</v>
+      </c>
+      <c r="J122" s="14">
+        <v>5500</v>
+      </c>
+      <c r="K122" s="14">
+        <f t="shared" ref="K122:K129" si="19">I122+J122</f>
+        <v>10750</v>
+      </c>
+      <c r="L122" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A123" s="12">
+        <f t="shared" si="18"/>
+        <v>-5.0499999999999545</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C123" s="12">
+        <v>40</v>
+      </c>
+      <c r="D123" s="12">
+        <v>268.10000000000002</v>
+      </c>
+      <c r="E123" s="13">
+        <v>7492.43</v>
+      </c>
+      <c r="F123" s="12">
+        <v>52.41</v>
+      </c>
+      <c r="G123" s="30">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H123" s="13">
+        <v>1.54</v>
+      </c>
+      <c r="I123" s="14">
+        <v>5250</v>
+      </c>
+      <c r="J123" s="14">
+        <v>5500</v>
+      </c>
+      <c r="K123" s="14">
+        <f t="shared" si="19"/>
+        <v>10750</v>
+      </c>
+      <c r="L123" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A124" s="12">
+        <f t="shared" si="18"/>
+        <v>-13.689999999999998</v>
+      </c>
+      <c r="B124" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C124" s="12">
+        <v>50</v>
+      </c>
+      <c r="D124" s="12">
+        <v>259.45999999999998</v>
+      </c>
+      <c r="E124" s="12">
+        <v>7237.87</v>
+      </c>
+      <c r="F124" s="12">
+        <v>53.47</v>
+      </c>
+      <c r="G124" s="30">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H124" s="13">
+        <v>1.44</v>
+      </c>
+      <c r="I124" s="14">
+        <v>5250</v>
+      </c>
+      <c r="J124" s="14">
+        <v>5500</v>
+      </c>
+      <c r="K124" s="14">
+        <f t="shared" si="19"/>
+        <v>10750</v>
+      </c>
+      <c r="L124" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A125" s="12">
+        <f t="shared" si="18"/>
+        <v>-21.529999999999973</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="12">
+        <v>60</v>
+      </c>
+      <c r="D125" s="13">
+        <v>251.62</v>
+      </c>
+      <c r="E125" s="12">
+        <v>7024.97</v>
+      </c>
+      <c r="F125" s="13">
+        <v>53.96</v>
+      </c>
+      <c r="G125" s="30">
+        <v>1E-4</v>
+      </c>
+      <c r="H125" s="13">
+        <v>1.87</v>
+      </c>
+      <c r="I125" s="14">
+        <v>5250</v>
+      </c>
+      <c r="J125" s="14">
+        <v>5500</v>
+      </c>
+      <c r="K125" s="14">
+        <f t="shared" si="19"/>
+        <v>10750</v>
+      </c>
+      <c r="L125" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A126" s="12">
+        <f t="shared" si="18"/>
+        <v>-29.049999999999983</v>
+      </c>
+      <c r="B126" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C126" s="12">
+        <v>70</v>
+      </c>
+      <c r="D126" s="12">
+        <v>244.1</v>
+      </c>
+      <c r="E126" s="12">
+        <v>6908.85</v>
+      </c>
+      <c r="F126" s="12">
+        <v>53.77</v>
+      </c>
+      <c r="G126" s="30">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="H126" s="13">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="I126" s="14">
+        <v>5250</v>
+      </c>
+      <c r="J126" s="14">
+        <v>5500</v>
+      </c>
+      <c r="K126" s="14">
+        <f t="shared" si="19"/>
+        <v>10750</v>
+      </c>
+      <c r="L126" s="13">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A127" s="33">
+        <f>D127-273.15</f>
+        <v>-36.95999999999998</v>
+      </c>
+      <c r="B127" s="33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="33">
+        <v>80</v>
+      </c>
+      <c r="D127" s="33">
+        <v>236.19</v>
+      </c>
+      <c r="E127" s="33">
+        <v>6845.67</v>
+      </c>
+      <c r="F127" s="33">
+        <v>53.05</v>
+      </c>
+      <c r="G127" s="34">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H127" s="35">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="I127" s="36">
+        <v>4750</v>
+      </c>
+      <c r="J127" s="36">
+        <v>5000</v>
+      </c>
+      <c r="K127" s="36">
+        <f t="shared" si="19"/>
+        <v>9750</v>
+      </c>
+      <c r="L127" s="35">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="37">
+        <f>D128-273.15</f>
         <v>-48.389999999999986</v>
       </c>
-      <c r="B116" s="38" t="s">
+      <c r="B128" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="C116" s="38">
+      <c r="C128" s="38">
         <v>91</v>
       </c>
-      <c r="D116" s="38">
+      <c r="D128" s="38">
         <v>224.76</v>
       </c>
-      <c r="E116" s="38">
+      <c r="E128" s="38">
         <v>6540.09</v>
       </c>
-      <c r="F116" s="38">
+      <c r="F128" s="38">
         <v>52.54</v>
       </c>
-      <c r="G116" s="39">
+      <c r="G128" s="39">
         <v>2.0000000000000001E-4</v>
       </c>
-      <c r="H116" s="37">
+      <c r="H128" s="37">
         <v>13.77</v>
       </c>
-      <c r="I116" s="36">
+      <c r="I128" s="36">
         <v>4750</v>
       </c>
-      <c r="J116" s="36">
+      <c r="J128" s="36">
         <v>5000</v>
       </c>
-      <c r="K116" s="36">
-        <f t="shared" si="16"/>
+      <c r="K128" s="36">
+        <f t="shared" si="19"/>
         <v>9750</v>
       </c>
-      <c r="L116" s="35">
-        <v>0.31</v>
-      </c>
-    </row>
-    <row r="117" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="19">
-        <f t="shared" si="15"/>
+      <c r="L128" s="35">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="19">
+        <f t="shared" si="18"/>
         <v>-62.799999999999983</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B129" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="C117" s="19"/>
-      <c r="D117" s="19">
+      <c r="C129" s="19"/>
+      <c r="D129" s="19">
         <v>210.35</v>
       </c>
-      <c r="E117" s="19">
+      <c r="E129" s="19">
         <v>5675</v>
       </c>
-      <c r="F117" s="20">
+      <c r="F129" s="20">
         <v>54.34</v>
       </c>
-      <c r="G117" s="20">
+      <c r="G129" s="20">
         <v>1.1299999999999999</v>
       </c>
-      <c r="H117" s="20">
+      <c r="H129" s="20">
         <v>12.24</v>
       </c>
-      <c r="I117" s="21">
+      <c r="I129" s="21">
         <v>5250</v>
       </c>
-      <c r="J117" s="21">
+      <c r="J129" s="21">
         <v>5500</v>
       </c>
-      <c r="K117" s="21">
-        <f t="shared" si="16"/>
+      <c r="K129" s="21">
+        <f t="shared" si="19"/>
         <v>10750</v>
       </c>
-      <c r="L117" s="22">
+      <c r="L129" s="22">
         <v>0.31</v>
       </c>
     </row>
